--- a/Code/Results/Cases/Case_2_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_line/pl_mw.xlsx
@@ -415,22 +415,22 @@
         <v>3.786177905486909</v>
       </c>
       <c r="C2">
-        <v>1.427782705657876</v>
+        <v>1.427782705657819</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.480840718803378</v>
+        <v>1.480840718803393</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.926805724250741</v>
+        <v>0.9268057242507552</v>
       </c>
       <c r="H2">
-        <v>0.428233576249589</v>
+        <v>0.4282335762495819</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -453,19 +453,19 @@
         <v>3.266892723349997</v>
       </c>
       <c r="C3">
-        <v>1.228156698013265</v>
+        <v>1.228156698013095</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.260644933022803</v>
+        <v>1.260644933022775</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.8107237644092464</v>
+        <v>0.8107237644092322</v>
       </c>
       <c r="H3">
         <v>0.3912852928540715</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.952461943668368</v>
+        <v>2.952461943668425</v>
       </c>
       <c r="C4">
-        <v>1.107936935146512</v>
+        <v>1.107936935146853</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.129776094282818</v>
+        <v>1.129776094282875</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -506,7 +506,7 @@
         <v>0.7444281667908541</v>
       </c>
       <c r="H4">
-        <v>0.3716924040232001</v>
+        <v>0.3716924040232286</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.825231369068092</v>
+        <v>2.825231369068149</v>
       </c>
       <c r="C5">
-        <v>1.059430689886227</v>
+        <v>1.059430689885943</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0.7185072073886332</v>
       </c>
       <c r="H5">
-        <v>0.3643979921969489</v>
+        <v>0.3643979921969631</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.804153741797109</v>
+        <v>2.804153741797165</v>
       </c>
       <c r="C6">
-        <v>1.051402628492696</v>
+        <v>1.051402628492639</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.068692899590943</v>
+        <v>1.068692899590999</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.7142649389861901</v>
+        <v>0.7142649389862044</v>
       </c>
       <c r="H6">
         <v>0.3632260407552224</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.950742669468127</v>
+        <v>2.950742669468013</v>
       </c>
       <c r="C7">
-        <v>1.107280934190868</v>
+        <v>1.107280934190811</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.129065615167747</v>
+        <v>1.129065615167718</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
         <v>0.7440743482994421</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.606079869298867</v>
+        <v>3.606079869299037</v>
       </c>
       <c r="C8">
-        <v>1.35839490918238</v>
+        <v>1.358394909182437</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.403897529407203</v>
+        <v>1.403897529407217</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -658,7 +658,7 @@
         <v>0.8856466964124223</v>
       </c>
       <c r="H8">
-        <v>0.4147954288079205</v>
+        <v>0.4147954288079134</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.937102324014518</v>
+        <v>4.937102324014404</v>
       </c>
       <c r="C9">
         <v>1.875143476072992</v>
@@ -687,16 +687,16 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.987240346252221</v>
+        <v>1.987240346252207</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>1.211011296172259</v>
+        <v>1.211011296172273</v>
       </c>
       <c r="H9">
-        <v>0.5286700737312557</v>
+        <v>0.5286700737312486</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -719,22 +719,22 @@
         <v>5.961194200079376</v>
       </c>
       <c r="C10">
-        <v>2.279139849771241</v>
+        <v>2.279139849771127</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.460137030310065</v>
+        <v>2.460137030310108</v>
       </c>
       <c r="F10">
-        <v>2.275587181990957</v>
+        <v>2.275587181990971</v>
       </c>
       <c r="G10">
         <v>1.492911827764686</v>
       </c>
       <c r="H10">
-        <v>0.6377798990332195</v>
+        <v>0.6377798990332266</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.442279607993896</v>
+        <v>6.442279607993839</v>
       </c>
       <c r="C11">
-        <v>2.470950524722753</v>
+        <v>2.470950524722582</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.690020591708887</v>
+        <v>2.69002059170883</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.634391506937092</v>
+        <v>1.634391506937106</v>
       </c>
       <c r="H11">
         <v>0.6951311140827059</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.627189006013111</v>
+        <v>6.627189006013168</v>
       </c>
       <c r="C12">
-        <v>2.545031770559376</v>
+        <v>2.545031770559547</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.779759933371523</v>
+        <v>2.779759933371537</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>1.690289714206273</v>
+        <v>1.690289714206315</v>
       </c>
       <c r="H12">
-        <v>0.71819147563059</v>
+        <v>0.7181914756306114</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.587233943671265</v>
+        <v>6.587233943671208</v>
       </c>
       <c r="C13">
-        <v>2.529007322835355</v>
+        <v>2.52900732283473</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.760302845507468</v>
+        <v>2.760302845507482</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.678140016820706</v>
+        <v>1.67814001682072</v>
       </c>
       <c r="H13">
-        <v>0.7131610128283796</v>
+        <v>0.7131610128283867</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.457433898208023</v>
+        <v>6.457433898207967</v>
       </c>
       <c r="C14">
-        <v>2.477014325098537</v>
+        <v>2.477014325098423</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.697345880603152</v>
+        <v>2.69734588060318</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
@@ -886,7 +886,7 @@
         <v>1.638940990817218</v>
       </c>
       <c r="H14">
-        <v>0.6969998703791305</v>
+        <v>0.6969998703791376</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>6.378301703227578</v>
       </c>
       <c r="C15">
-        <v>2.445365325709929</v>
+        <v>2.445365325709815</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.615247014521145</v>
+        <v>1.615247014521131</v>
       </c>
       <c r="H15">
-        <v>0.6872833739320541</v>
+        <v>0.6872833739320612</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.930104306012765</v>
+        <v>5.930104306012936</v>
       </c>
       <c r="C16">
-        <v>2.266789653592525</v>
+        <v>2.266789653592582</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.445455736466315</v>
+        <v>2.4454557364664</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>1.483965981637482</v>
+        <v>1.48396598163751</v>
       </c>
       <c r="H16">
         <v>0.6342059176145298</v>
@@ -985,22 +985,22 @@
         <v>5.659400066902208</v>
       </c>
       <c r="C17">
-        <v>2.159484120639661</v>
+        <v>2.15948412063949</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.318499964503616</v>
+        <v>2.318499964503573</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.407091018616939</v>
+        <v>1.407091018616924</v>
       </c>
       <c r="H17">
-        <v>0.6037714899868476</v>
+        <v>0.6037714899868405</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.50509229187702</v>
+        <v>5.505092291877077</v>
       </c>
       <c r="C18">
-        <v>2.098499915643458</v>
+        <v>2.098499915643742</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.246826832331337</v>
+        <v>2.246826832331308</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.364091196255103</v>
+        <v>1.364091196255131</v>
       </c>
       <c r="H18">
         <v>0.5869761956276065</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.453071032403841</v>
+        <v>5.453071032403784</v>
       </c>
       <c r="C19">
-        <v>2.077970097681032</v>
+        <v>2.077970097681089</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.222776140281695</v>
+        <v>2.222776140281653</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>2.087706772602957</v>
       </c>
       <c r="G19">
-        <v>1.349729839629518</v>
+        <v>1.349729839629532</v>
       </c>
       <c r="H19">
-        <v>0.5814052028300978</v>
+        <v>0.5814052028301049</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.688069132706573</v>
+        <v>5.688069132706403</v>
       </c>
       <c r="C20">
-        <v>2.170828988886399</v>
+        <v>2.170828988886285</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.331871413398375</v>
+        <v>2.331871413398403</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.415145830342112</v>
+        <v>1.415145830342141</v>
       </c>
       <c r="H20">
-        <v>0.6069362989774234</v>
+        <v>0.6069362989774447</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.49548021286887</v>
+        <v>6.495480212868813</v>
       </c>
       <c r="C21">
-        <v>2.492244001647975</v>
+        <v>2.492244001648089</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>7.0394460188881</v>
       </c>
       <c r="C22">
-        <v>2.710928532588184</v>
+        <v>2.710928532588355</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.982695828780919</v>
+        <v>2.982695828780905</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>1.817941324552493</v>
+        <v>1.817941324552478</v>
       </c>
       <c r="H22">
         <v>0.7716231109805491</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.747418750322026</v>
+        <v>6.747418750321856</v>
       </c>
       <c r="C23">
-        <v>2.593308382367809</v>
+        <v>2.59330838236815</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.838531408179819</v>
+        <v>2.838531408179875</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>1.727086430537625</v>
+        <v>1.727086430537639</v>
       </c>
       <c r="H23">
         <v>0.7334867582117539</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.675103764462449</v>
+        <v>5.675103764462278</v>
       </c>
       <c r="C24">
-        <v>2.165697792367951</v>
+        <v>2.165697792367723</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.325822124671802</v>
+        <v>2.325822124671788</v>
       </c>
       <c r="F24">
         <v>2.170038921573038</v>
       </c>
       <c r="G24">
-        <v>1.411500553072742</v>
+        <v>1.411500553072727</v>
       </c>
       <c r="H24">
-        <v>0.6055033195583803</v>
+        <v>0.6055033195583945</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.570419581043666</v>
+        <v>4.570419581043723</v>
       </c>
       <c r="C25">
-        <v>1.731866354649412</v>
+        <v>1.731866354649696</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.82310465199015</v>
+        <v>1.823104651990164</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>1.116606119968324</v>
+        <v>1.116606119968338</v>
       </c>
       <c r="H25">
-        <v>0.4940312291752491</v>
+        <v>0.4940312291752562</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_line/pl_mw.xlsx
@@ -415,22 +415,22 @@
         <v>3.786177905486909</v>
       </c>
       <c r="C2">
-        <v>1.427782705657819</v>
+        <v>1.427782705657876</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.480840718803393</v>
+        <v>1.480840718803378</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.9268057242507552</v>
+        <v>0.926805724250741</v>
       </c>
       <c r="H2">
-        <v>0.4282335762495819</v>
+        <v>0.428233576249589</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -453,19 +453,19 @@
         <v>3.266892723349997</v>
       </c>
       <c r="C3">
-        <v>1.228156698013095</v>
+        <v>1.228156698013265</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.260644933022775</v>
+        <v>1.260644933022803</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.8107237644092322</v>
+        <v>0.8107237644092464</v>
       </c>
       <c r="H3">
         <v>0.3912852928540715</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.952461943668425</v>
+        <v>2.952461943668368</v>
       </c>
       <c r="C4">
-        <v>1.107936935146853</v>
+        <v>1.107936935146512</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.129776094282875</v>
+        <v>1.129776094282818</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -506,7 +506,7 @@
         <v>0.7444281667908541</v>
       </c>
       <c r="H4">
-        <v>0.3716924040232286</v>
+        <v>0.3716924040232001</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.825231369068149</v>
+        <v>2.825231369068092</v>
       </c>
       <c r="C5">
-        <v>1.059430689885943</v>
+        <v>1.059430689886227</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0.7185072073886332</v>
       </c>
       <c r="H5">
-        <v>0.3643979921969631</v>
+        <v>0.3643979921969489</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.804153741797165</v>
+        <v>2.804153741797109</v>
       </c>
       <c r="C6">
-        <v>1.051402628492639</v>
+        <v>1.051402628492696</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.068692899590999</v>
+        <v>1.068692899590943</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.7142649389862044</v>
+        <v>0.7142649389861901</v>
       </c>
       <c r="H6">
         <v>0.3632260407552224</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.950742669468013</v>
+        <v>2.950742669468127</v>
       </c>
       <c r="C7">
-        <v>1.107280934190811</v>
+        <v>1.107280934190868</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.129065615167718</v>
+        <v>1.129065615167747</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
         <v>0.7440743482994421</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.606079869299037</v>
+        <v>3.606079869298867</v>
       </c>
       <c r="C8">
-        <v>1.358394909182437</v>
+        <v>1.35839490918238</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.403897529407217</v>
+        <v>1.403897529407203</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -658,7 +658,7 @@
         <v>0.8856466964124223</v>
       </c>
       <c r="H8">
-        <v>0.4147954288079134</v>
+        <v>0.4147954288079205</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.937102324014404</v>
+        <v>4.937102324014518</v>
       </c>
       <c r="C9">
         <v>1.875143476072992</v>
@@ -687,16 +687,16 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.987240346252207</v>
+        <v>1.987240346252221</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>1.211011296172273</v>
+        <v>1.211011296172259</v>
       </c>
       <c r="H9">
-        <v>0.5286700737312486</v>
+        <v>0.5286700737312557</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -719,22 +719,22 @@
         <v>5.961194200079376</v>
       </c>
       <c r="C10">
-        <v>2.279139849771127</v>
+        <v>2.279139849771241</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.460137030310108</v>
+        <v>2.460137030310065</v>
       </c>
       <c r="F10">
-        <v>2.275587181990971</v>
+        <v>2.275587181990957</v>
       </c>
       <c r="G10">
         <v>1.492911827764686</v>
       </c>
       <c r="H10">
-        <v>0.6377798990332266</v>
+        <v>0.6377798990332195</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.442279607993839</v>
+        <v>6.442279607993896</v>
       </c>
       <c r="C11">
-        <v>2.470950524722582</v>
+        <v>2.470950524722753</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.69002059170883</v>
+        <v>2.690020591708887</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.634391506937106</v>
+        <v>1.634391506937092</v>
       </c>
       <c r="H11">
         <v>0.6951311140827059</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.627189006013168</v>
+        <v>6.627189006013111</v>
       </c>
       <c r="C12">
-        <v>2.545031770559547</v>
+        <v>2.545031770559376</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.779759933371537</v>
+        <v>2.779759933371523</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.690289714206315</v>
+        <v>1.690289714206273</v>
       </c>
       <c r="H12">
-        <v>0.7181914756306114</v>
+        <v>0.71819147563059</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.587233943671208</v>
+        <v>6.587233943671265</v>
       </c>
       <c r="C13">
-        <v>2.52900732283473</v>
+        <v>2.529007322835355</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.760302845507482</v>
+        <v>2.760302845507468</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>1.67814001682072</v>
+        <v>1.678140016820706</v>
       </c>
       <c r="H13">
-        <v>0.7131610128283867</v>
+        <v>0.7131610128283796</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.457433898207967</v>
+        <v>6.457433898208023</v>
       </c>
       <c r="C14">
-        <v>2.477014325098423</v>
+        <v>2.477014325098537</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.69734588060318</v>
+        <v>2.697345880603152</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
@@ -886,7 +886,7 @@
         <v>1.638940990817218</v>
       </c>
       <c r="H14">
-        <v>0.6969998703791376</v>
+        <v>0.6969998703791305</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>6.378301703227578</v>
       </c>
       <c r="C15">
-        <v>2.445365325709815</v>
+        <v>2.445365325709929</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.615247014521131</v>
+        <v>1.615247014521145</v>
       </c>
       <c r="H15">
-        <v>0.6872833739320612</v>
+        <v>0.6872833739320541</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.930104306012936</v>
+        <v>5.930104306012765</v>
       </c>
       <c r="C16">
-        <v>2.266789653592582</v>
+        <v>2.266789653592525</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.4454557364664</v>
+        <v>2.445455736466315</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>1.48396598163751</v>
+        <v>1.483965981637482</v>
       </c>
       <c r="H16">
         <v>0.6342059176145298</v>
@@ -985,22 +985,22 @@
         <v>5.659400066902208</v>
       </c>
       <c r="C17">
-        <v>2.15948412063949</v>
+        <v>2.159484120639661</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.318499964503573</v>
+        <v>2.318499964503616</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.407091018616924</v>
+        <v>1.407091018616939</v>
       </c>
       <c r="H17">
-        <v>0.6037714899868405</v>
+        <v>0.6037714899868476</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.505092291877077</v>
+        <v>5.50509229187702</v>
       </c>
       <c r="C18">
-        <v>2.098499915643742</v>
+        <v>2.098499915643458</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.246826832331308</v>
+        <v>2.246826832331337</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.364091196255131</v>
+        <v>1.364091196255103</v>
       </c>
       <c r="H18">
         <v>0.5869761956276065</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.453071032403784</v>
+        <v>5.453071032403841</v>
       </c>
       <c r="C19">
-        <v>2.077970097681089</v>
+        <v>2.077970097681032</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.222776140281653</v>
+        <v>2.222776140281695</v>
       </c>
       <c r="F19">
-        <v>2.087706772602957</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>1.349729839629532</v>
+        <v>1.349729839629518</v>
       </c>
       <c r="H19">
-        <v>0.5814052028301049</v>
+        <v>0.5814052028300978</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.688069132706403</v>
+        <v>5.688069132706573</v>
       </c>
       <c r="C20">
-        <v>2.170828988886285</v>
+        <v>2.170828988886399</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.331871413398403</v>
+        <v>2.331871413398375</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.415145830342141</v>
+        <v>1.415145830342112</v>
       </c>
       <c r="H20">
-        <v>0.6069362989774447</v>
+        <v>0.6069362989774234</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.495480212868813</v>
+        <v>6.49548021286887</v>
       </c>
       <c r="C21">
-        <v>2.492244001648089</v>
+        <v>2.492244001647975</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>7.0394460188881</v>
       </c>
       <c r="C22">
-        <v>2.710928532588355</v>
+        <v>2.710928532588184</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.982695828780905</v>
+        <v>2.982695828780919</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>1.817941324552478</v>
+        <v>1.817941324552493</v>
       </c>
       <c r="H22">
         <v>0.7716231109805491</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.747418750321856</v>
+        <v>6.747418750322026</v>
       </c>
       <c r="C23">
-        <v>2.59330838236815</v>
+        <v>2.593308382367809</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.838531408179875</v>
+        <v>2.838531408179819</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>1.727086430537639</v>
+        <v>1.727086430537625</v>
       </c>
       <c r="H23">
         <v>0.7334867582117539</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.675103764462278</v>
+        <v>5.675103764462449</v>
       </c>
       <c r="C24">
-        <v>2.165697792367723</v>
+        <v>2.165697792367951</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.325822124671788</v>
+        <v>2.325822124671802</v>
       </c>
       <c r="F24">
         <v>2.170038921573038</v>
       </c>
       <c r="G24">
-        <v>1.411500553072727</v>
+        <v>1.411500553072742</v>
       </c>
       <c r="H24">
-        <v>0.6055033195583945</v>
+        <v>0.6055033195583803</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.570419581043723</v>
+        <v>4.570419581043666</v>
       </c>
       <c r="C25">
-        <v>1.731866354649696</v>
+        <v>1.731866354649412</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.823104651990164</v>
+        <v>1.82310465199015</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>1.116606119968338</v>
+        <v>1.116606119968324</v>
       </c>
       <c r="H25">
-        <v>0.4940312291752562</v>
+        <v>0.4940312291752491</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.786177905486909</v>
+        <v>3.785858136604134</v>
       </c>
       <c r="C2">
-        <v>1.427782705657876</v>
+        <v>1.426906711793265</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.480840718803378</v>
+        <v>1.480762339735278</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.926805724250741</v>
+        <v>0.3049293504735573</v>
       </c>
       <c r="H2">
-        <v>0.428233576249589</v>
+        <v>0.6232447481943382</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4267819393954184</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -444,34 +447,37 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.266892723349997</v>
+        <v>3.266680062461774</v>
       </c>
       <c r="C3">
-        <v>1.228156698013265</v>
+        <v>1.227431308819746</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.260644933022803</v>
+        <v>1.260595956008444</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.8107237644092464</v>
+        <v>0.26271447787272</v>
       </c>
       <c r="H3">
-        <v>0.3912852928540715</v>
+        <v>0.5498298720231816</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.3900114139854765</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -482,34 +488,37 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.952461943668368</v>
+        <v>2.95230559844947</v>
       </c>
       <c r="C4">
-        <v>1.107936935146512</v>
+        <v>1.107298459686604</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.129776094282818</v>
+        <v>1.129741580864831</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.7444281667908541</v>
+        <v>0.2384232460010338</v>
       </c>
       <c r="H4">
-        <v>0.3716924040232001</v>
+        <v>0.5080906994043062</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3705226421371677</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -520,34 +529,37 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.825231369068092</v>
+        <v>2.825095986649103</v>
       </c>
       <c r="C5">
-        <v>1.059430689886227</v>
+        <v>1.058826481598857</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.077348859973938</v>
+        <v>1.077319526405887</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.7185072073886332</v>
+        <v>0.2288804587124815</v>
       </c>
       <c r="H5">
-        <v>0.3643979921969489</v>
+        <v>0.4918179756963923</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.3632696034948211</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -558,34 +570,37 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.804153741797109</v>
+        <v>2.804021730543923</v>
       </c>
       <c r="C6">
-        <v>1.051402628492696</v>
+        <v>1.050804047247027</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.068692899590943</v>
+        <v>1.068664387781382</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.7142649389861901</v>
+        <v>0.2273159446069926</v>
       </c>
       <c r="H6">
-        <v>0.3632260407552224</v>
+        <v>0.4891575864977966</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.3621044638264337</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -596,34 +611,37 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.950742669468127</v>
+        <v>2.950586614531687</v>
       </c>
       <c r="C7">
-        <v>1.107280934190868</v>
+        <v>1.106642925230659</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.129065615167747</v>
+        <v>1.129031174277813</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.7440743482994421</v>
+        <v>0.2382931730916837</v>
       </c>
       <c r="H7">
-        <v>0.3715913449249157</v>
+        <v>0.5078683859157991</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.3704221450314549</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -634,34 +652,37 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.606079869298867</v>
+        <v>3.605799247130847</v>
       </c>
       <c r="C8">
-        <v>1.35839490918238</v>
+        <v>1.357572158531127</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.403897529407203</v>
+        <v>1.403830159858828</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.8856466964124223</v>
+        <v>0.2900013332854314</v>
       </c>
       <c r="H8">
-        <v>0.4147954288079205</v>
+        <v>0.597172581219283</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.413406262340672</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -672,34 +693,37 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.937102324014518</v>
+        <v>4.936480867143246</v>
       </c>
       <c r="C9">
-        <v>1.875143476072992</v>
+        <v>1.873900708414453</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.987240346252221</v>
+        <v>1.987068659799547</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>1.211011296172259</v>
+        <v>0.4071308873451471</v>
       </c>
       <c r="H9">
-        <v>0.5286700737312557</v>
+        <v>0.8041826099092333</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.5267981860042283</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -710,34 +734,37 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.961194200079376</v>
+        <v>5.960224791934706</v>
       </c>
       <c r="C10">
-        <v>2.279139849771241</v>
+        <v>2.277528930459084</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.460137030310065</v>
+        <v>2.459842351362639</v>
       </c>
       <c r="F10">
         <v>2.275587181990957</v>
       </c>
       <c r="G10">
-        <v>1.492911827764686</v>
+        <v>0.507460445258701</v>
       </c>
       <c r="H10">
-        <v>0.6377798990332195</v>
+        <v>0.9847273489231867</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.6355016675920027</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -748,34 +775,37 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.442279607993896</v>
+        <v>6.441118545412394</v>
       </c>
       <c r="C11">
-        <v>2.470950524722753</v>
+        <v>2.469151546390833</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.690020591708887</v>
+        <v>2.689652096153822</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.634391506937092</v>
+        <v>0.5575413820090773</v>
       </c>
       <c r="H11">
-        <v>0.6951311140827059</v>
+        <v>1.07561693509966</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.6926504706837804</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -786,34 +816,37 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.627189006013111</v>
+        <v>6.625949153621377</v>
       </c>
       <c r="C12">
-        <v>2.545031770559376</v>
+        <v>2.543157733282669</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.779759933371523</v>
+        <v>2.779359923957529</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.690289714206273</v>
+        <v>0.5772871081476154</v>
       </c>
       <c r="H12">
-        <v>0.71819147563059</v>
+        <v>1.111568843440622</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.7156309304638597</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -824,34 +857,37 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.587233943671265</v>
+        <v>6.586011363777061</v>
       </c>
       <c r="C13">
-        <v>2.529007322835355</v>
+        <v>2.527149638904746</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.760302845507468</v>
+        <v>2.759909801608401</v>
       </c>
       <c r="F13">
         <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>1.678140016820706</v>
+        <v>0.5729971462604482</v>
       </c>
       <c r="H13">
-        <v>0.7131610128283796</v>
+        <v>1.103752682265721</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.7106178345532186</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -862,34 +898,37 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.457433898208023</v>
+        <v>6.456266487763344</v>
       </c>
       <c r="C14">
-        <v>2.477014325098537</v>
+        <v>2.475209254723154</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.697345880603152</v>
+        <v>2.696974870832079</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.638940990817218</v>
+        <v>0.5591492859040699</v>
       </c>
       <c r="H14">
-        <v>0.6969998703791305</v>
+        <v>1.078542180829785</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.6945127235473407</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -900,34 +939,37 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.378301703227578</v>
+        <v>6.377167226956431</v>
       </c>
       <c r="C15">
-        <v>2.445365325709929</v>
+        <v>2.443591951069038</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.659152150824198</v>
+        <v>2.658794137824884</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.615247014521145</v>
+        <v>0.550773585138657</v>
       </c>
       <c r="H15">
-        <v>0.6872833739320541</v>
+        <v>1.063308996813319</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.684830099118912</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -938,34 +980,37 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.930104306012765</v>
+        <v>5.929146639787291</v>
       </c>
       <c r="C16">
-        <v>2.266789653592525</v>
+        <v>2.265190540319793</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.445455736466315</v>
+        <v>2.445165445563561</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>1.483965981637482</v>
+        <v>0.5042883792130937</v>
       </c>
       <c r="H16">
-        <v>0.6342059176145298</v>
+        <v>0.9789858584224049</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.631940503354592</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -976,34 +1021,37 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.659400066902208</v>
+        <v>5.658541438394593</v>
       </c>
       <c r="C17">
-        <v>2.159484120639661</v>
+        <v>2.15798608645332</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.318499964503616</v>
+        <v>2.318246046398869</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.407091018616939</v>
+        <v>0.4770005517641493</v>
       </c>
       <c r="H17">
-        <v>0.6037714899868476</v>
+        <v>0.9296768042282366</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.6016163683684184</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1014,34 +1062,37 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.50509229187702</v>
+        <v>5.504287591329216</v>
       </c>
       <c r="C18">
-        <v>2.098499915643458</v>
+        <v>2.097058147452799</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.246826832331337</v>
+        <v>2.246592229740898</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.364091196255103</v>
+        <v>0.4617131468031914</v>
       </c>
       <c r="H18">
-        <v>0.5869761956276065</v>
+        <v>0.9021204718648761</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.5848829118432164</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1052,34 +1103,37 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.453071032403841</v>
+        <v>5.452284106151296</v>
       </c>
       <c r="C19">
-        <v>2.077970097681032</v>
+        <v>2.076547081596686</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.222776140281695</v>
+        <v>2.222547826419699</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>1.349729839629518</v>
+        <v>0.456603286992717</v>
       </c>
       <c r="H19">
-        <v>0.5814052028300978</v>
+        <v>0.8929212038881218</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.579332600453796</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1090,34 +1144,37 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.688069132706573</v>
+        <v>5.687200284615869</v>
       </c>
       <c r="C20">
-        <v>2.170828988886399</v>
+        <v>2.169320394003023</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.331871413398375</v>
+        <v>2.331613795503287</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.415145830342112</v>
+        <v>0.4798622441802962</v>
       </c>
       <c r="H20">
-        <v>0.6069362989774234</v>
+        <v>0.9348407315388414</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.6047696066821686</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1128,34 +1185,37 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.49548021286887</v>
+        <v>6.49429677994442</v>
       </c>
       <c r="C21">
-        <v>2.492244001647975</v>
+        <v>2.490423590157036</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.715759697177106</v>
+        <v>2.715382321948624</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.650387837512042</v>
+        <v>0.5631942388439768</v>
       </c>
       <c r="H21">
-        <v>0.7017082284199461</v>
+        <v>1.085902984655618</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.6992047189545403</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1166,34 +1226,37 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.0394460188881</v>
+        <v>7.038019754909556</v>
       </c>
       <c r="C22">
-        <v>2.710928532588184</v>
+        <v>2.708881289797887</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.982695828780919</v>
+        <v>2.982218647792308</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>1.817941324552493</v>
+        <v>0.6223014791653583</v>
       </c>
       <c r="H22">
-        <v>0.7716231109805491</v>
+        <v>1.193748740561688</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.7688800001454865</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1204,34 +1267,37 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.747418750322026</v>
+        <v>6.746126087870323</v>
       </c>
       <c r="C23">
-        <v>2.593308382367809</v>
+        <v>2.591384680974954</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.838531408179819</v>
+        <v>2.838109905489702</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>1.727086430537625</v>
+        <v>0.5902736651742373</v>
       </c>
       <c r="H23">
-        <v>0.7334867582117539</v>
+        <v>1.135247092089159</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.7308736104296614</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1242,34 +1308,37 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.675103764462449</v>
+        <v>5.67423954592067</v>
       </c>
       <c r="C24">
-        <v>2.165697792367951</v>
+        <v>2.164193977661284</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.325822124671802</v>
+        <v>2.32556618435305</v>
       </c>
       <c r="F24">
         <v>2.170038921573038</v>
       </c>
       <c r="G24">
-        <v>1.411500553072742</v>
+        <v>0.4785672351753476</v>
       </c>
       <c r="H24">
-        <v>0.6055033195583803</v>
+        <v>0.9325036726544909</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.6033418632072767</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1280,34 +1349,37 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.570419581043666</v>
+        <v>4.569904109028812</v>
       </c>
       <c r="C25">
-        <v>1.731866354649412</v>
+        <v>1.730745567331269</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.82310465199015</v>
+        <v>1.822967311462747</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>1.116606119968324</v>
+        <v>0.3733260065811663</v>
       </c>
       <c r="H25">
-        <v>0.4940312291752491</v>
+        <v>0.7439317106569945</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.4922972541197268</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,40 +409,46 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.785858136604134</v>
+        <v>2.366960278680892</v>
       </c>
       <c r="C2">
-        <v>1.426906711793265</v>
+        <v>0.5381291332328715</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.480762339735278</v>
+        <v>0.04909054864870122</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>6.540923738638327</v>
       </c>
       <c r="G2">
-        <v>0.3049293504735573</v>
+        <v>0.0007997978723724218</v>
       </c>
       <c r="H2">
-        <v>0.6232447481943382</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4267819393954184</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6366966370228653</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6497772093254</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,40 +456,46 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.266680062461774</v>
+        <v>2.036348648318153</v>
       </c>
       <c r="C3">
-        <v>1.227431308819746</v>
+        <v>0.4595701407052672</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.260595956008444</v>
+        <v>0.0376223141857519</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>5.753522473234909</v>
       </c>
       <c r="G3">
-        <v>0.26271447787272</v>
+        <v>0.0008108689444542471</v>
       </c>
       <c r="H3">
-        <v>0.5498298720231816</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3900114139854765</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5569636952327528</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5577756363348172</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,40 +503,46 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.95230559844947</v>
+        <v>1.838783558445726</v>
       </c>
       <c r="C4">
-        <v>1.107298459686604</v>
+        <v>0.4127037865385432</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.129741580864831</v>
+        <v>0.03135266875727716</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>5.285316850041596</v>
       </c>
       <c r="G4">
-        <v>0.2384232460010338</v>
+        <v>0.0008177894732614004</v>
       </c>
       <c r="H4">
-        <v>0.5080906994043062</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3705226421371677</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5095194601208135</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5028191783118956</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,40 +550,46 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.825095986649103</v>
+        <v>1.759444263733116</v>
       </c>
       <c r="C5">
-        <v>1.058826481598857</v>
+        <v>0.3938961368743321</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.077319526405887</v>
+        <v>0.02896290227591436</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>5.097788156106247</v>
       </c>
       <c r="G5">
-        <v>0.2288804587124815</v>
+        <v>0.0008206442512124251</v>
       </c>
       <c r="H5">
-        <v>0.4918179756963923</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3632696034948211</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4905044252193136</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4807530051815405</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -573,40 +597,46 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.804021730543923</v>
+        <v>1.746335407054602</v>
       </c>
       <c r="C6">
-        <v>1.050804047247027</v>
+        <v>0.3907892601093579</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.068664387781382</v>
+        <v>0.02857528961678746</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>5.066831234500313</v>
       </c>
       <c r="G6">
-        <v>0.2273159446069926</v>
+        <v>0.0008211204759291935</v>
       </c>
       <c r="H6">
-        <v>0.4891575864977966</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3621044638264337</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4873645961091455</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4771072813221551</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -614,40 +644,46 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.950586614531687</v>
+        <v>1.837709065669628</v>
       </c>
       <c r="C7">
-        <v>1.106642925230659</v>
+        <v>0.4124490287112508</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.129031174277813</v>
+        <v>0.03131980606466556</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>5.282775239591786</v>
       </c>
       <c r="G7">
-        <v>0.2382931730916837</v>
+        <v>0.0008178278291143153</v>
       </c>
       <c r="H7">
-        <v>0.5078683859157991</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3704221450314549</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5092618013849517</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5025203237342879</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -655,40 +691,46 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.605799247130847</v>
+        <v>2.25171261411424</v>
       </c>
       <c r="C8">
-        <v>1.357572158531127</v>
+        <v>0.5107234355409105</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.403830159858828</v>
+        <v>0.04495731156999661</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>6.265895192343066</v>
       </c>
       <c r="G8">
-        <v>0.2900013332854314</v>
+        <v>0.0008035920564162004</v>
       </c>
       <c r="H8">
-        <v>0.597172581219283</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.413406262340672</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6088515079245411</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6177007478170395</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -696,40 +738,46 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.936480867143246</v>
+        <v>3.116950336818604</v>
       </c>
       <c r="C9">
-        <v>1.873900708414453</v>
+        <v>0.7171337837575891</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.987068659799547</v>
+        <v>0.07939692166225498</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>8.344886217859113</v>
       </c>
       <c r="G9">
-        <v>0.4071308873451471</v>
+        <v>0.0007764563551506996</v>
       </c>
       <c r="H9">
-        <v>0.8041826099092333</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5267981860042283</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.8193812978105939</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8587000709590455</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -737,40 +785,46 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.960224791934706</v>
+        <v>3.802314624649114</v>
       </c>
       <c r="C10">
-        <v>2.277528930459084</v>
+        <v>0.8818939296388635</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.459842351362639</v>
+        <v>0.1121301767541922</v>
       </c>
       <c r="F10">
-        <v>2.275587181990957</v>
+        <v>10.01478335405693</v>
       </c>
       <c r="G10">
-        <v>0.507460445258701</v>
+        <v>0.0007566734457624653</v>
       </c>
       <c r="H10">
-        <v>0.9847273489231867</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6355016675920027</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.988782372359708</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.049945770771458</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -778,40 +832,46 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.441118545412394</v>
+        <v>4.129750380961866</v>
       </c>
       <c r="C11">
-        <v>2.469151546390833</v>
+        <v>0.9610626598232272</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.689652096153822</v>
+        <v>0.1294615856237371</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>10.81983989084364</v>
       </c>
       <c r="G11">
-        <v>0.5575413820090773</v>
+        <v>0.0007476160423371897</v>
       </c>
       <c r="H11">
-        <v>1.07561693509966</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6926504706837804</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.07060729727371</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.141439641530454</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -819,40 +879,46 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.625949153621377</v>
+        <v>4.256506609941709</v>
       </c>
       <c r="C12">
-        <v>2.543157733282669</v>
+        <v>0.9917945079502033</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.779359923957529</v>
+        <v>0.1364677642187786</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>11.13276565535438</v>
       </c>
       <c r="G12">
-        <v>0.5772871081476154</v>
+        <v>0.0007441683050680524</v>
       </c>
       <c r="H12">
-        <v>1.111568843440622</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7156309304638597</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.102444400724835</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.176881835516909</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -860,40 +926,46 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.586011363777061</v>
+        <v>4.229075127562737</v>
       </c>
       <c r="C13">
-        <v>2.527149638904746</v>
+        <v>0.9851397111878271</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.759909801608401</v>
+        <v>0.1349374154716578</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>11.06498434761369</v>
       </c>
       <c r="G13">
-        <v>0.5729971462604482</v>
+        <v>0.0007449118074736027</v>
       </c>
       <c r="H13">
-        <v>1.103752682265721</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7106178345532186</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.095546755238701</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.169210616440765</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -901,40 +973,46 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.456266487763344</v>
+        <v>4.140119979858014</v>
       </c>
       <c r="C14">
-        <v>2.475209254723154</v>
+        <v>0.9635749551428319</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.696974870832079</v>
+        <v>0.1300284913029763</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>10.84541271412292</v>
       </c>
       <c r="G14">
-        <v>0.5591492859040699</v>
+        <v>0.000747332815440035</v>
       </c>
       <c r="H14">
-        <v>1.078542180829785</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6945127235473407</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.073208391378472</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.144338578661277</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -942,40 +1020,46 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.377167226956431</v>
+        <v>4.086009334478035</v>
       </c>
       <c r="C15">
-        <v>2.443591951069038</v>
+        <v>0.9504687885052192</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.658794137824884</v>
+        <v>0.1270824939496791</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>10.71202107860341</v>
       </c>
       <c r="G15">
-        <v>0.550773585138657</v>
+        <v>0.0007488131041983739</v>
       </c>
       <c r="H15">
-        <v>1.063308996813319</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.684830099118912</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.059642025178022</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.129212309626482</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -983,40 +1067,46 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.929146639787291</v>
+        <v>3.781272344866579</v>
       </c>
       <c r="C16">
-        <v>2.265190540319793</v>
+        <v>0.8768166912938113</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.445165445563561</v>
+        <v>0.1110539935448642</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>9.963208680137996</v>
       </c>
       <c r="G16">
-        <v>0.5042883792130937</v>
+        <v>0.0007572634290671252</v>
       </c>
       <c r="H16">
-        <v>0.9789858584224049</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.631940503354592</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.9835442003031858</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.04406891121279</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1024,40 +1114,46 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.658541438394593</v>
+        <v>3.598668301938233</v>
       </c>
       <c r="C17">
-        <v>2.15798608645332</v>
+        <v>0.8328079868331315</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.318246046398869</v>
+        <v>0.1019046828516394</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>9.516459689220198</v>
       </c>
       <c r="G17">
-        <v>0.4770005517641493</v>
+        <v>0.0007624263757141502</v>
       </c>
       <c r="H17">
-        <v>0.9296768042282366</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6016163683684184</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.9381882003066266</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.993083958578822</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1065,40 +1161,46 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.504287591329216</v>
+        <v>3.495077125800321</v>
       </c>
       <c r="C18">
-        <v>2.097058147452799</v>
+        <v>0.8078820452043658</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.246592229740898</v>
+        <v>0.09686529248999065</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>9.263666508820393</v>
       </c>
       <c r="G18">
-        <v>0.4617131468031914</v>
+        <v>0.0007653911759205927</v>
       </c>
       <c r="H18">
-        <v>0.9021204718648761</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5848829118432164</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.9125371235147668</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9641713221695198</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1106,40 +1208,46 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.452284106151296</v>
+        <v>3.460235999207384</v>
       </c>
       <c r="C19">
-        <v>2.076547081596686</v>
+        <v>0.7995050301791764</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.222547826419699</v>
+        <v>0.09519491219286635</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>9.178748894803448</v>
       </c>
       <c r="G19">
-        <v>0.456603286992717</v>
+        <v>0.0007663944428104484</v>
       </c>
       <c r="H19">
-        <v>0.8929212038881218</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.579332600453796</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.9039225784743792</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9544488178216568</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1147,40 +1255,46 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.687200284615869</v>
+        <v>3.617954638040828</v>
       </c>
       <c r="C20">
-        <v>2.169320394003023</v>
+        <v>0.8374518117745708</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.331613795503287</v>
+        <v>0.1028549642240399</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>9.563575743642133</v>
       </c>
       <c r="G20">
-        <v>0.4798622441802962</v>
+        <v>0.0007618773299213899</v>
       </c>
       <c r="H20">
-        <v>0.9348407315388414</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6047696066821686</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.9429701568169833</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9984677161021551</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1188,40 +1302,46 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.49429677994442</v>
+        <v>4.16616863114325</v>
       </c>
       <c r="C21">
-        <v>2.490423590157036</v>
+        <v>0.9698873003106883</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.715382321948624</v>
+        <v>0.1314574777618134</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>10.90967324346224</v>
       </c>
       <c r="G21">
-        <v>0.5631942388439768</v>
+        <v>0.0007466222790567202</v>
       </c>
       <c r="H21">
-        <v>1.085902984655618</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6992047189545403</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.079745072625457</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.151621158719266</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1229,40 +1349,46 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.038019754909556</v>
+        <v>4.540890207154064</v>
       </c>
       <c r="C22">
-        <v>2.708881289797887</v>
+        <v>1.060920622787393</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.982218647792308</v>
+        <v>0.1527960404705873</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>11.83744351821412</v>
       </c>
       <c r="G22">
-        <v>0.6223014791653583</v>
+        <v>0.0007365418506459931</v>
       </c>
       <c r="H22">
-        <v>1.193748740561688</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7688800001454865</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.174207742185729</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.256447222979375</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1270,40 +1396,46 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.746126087870323</v>
+        <v>4.339190802751716</v>
       </c>
       <c r="C23">
-        <v>2.591384680974954</v>
+        <v>1.011867220805016</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.838109905489702</v>
+        <v>0.1411279353570016</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>11.33727584028969</v>
       </c>
       <c r="G23">
-        <v>0.5902736651742373</v>
+        <v>0.00074193579576496</v>
       </c>
       <c r="H23">
-        <v>1.135247092089159</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7308736104296614</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.123261363428327</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.200008292799524</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1311,40 +1443,46 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.67423954592067</v>
+        <v>3.609230992054108</v>
       </c>
       <c r="C24">
-        <v>2.164193977661284</v>
+        <v>0.8353511802524167</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.32556618435305</v>
+        <v>0.1024246612925062</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>9.542262075765052</v>
       </c>
       <c r="G24">
-        <v>0.4785672351753476</v>
+        <v>0.0007621255635839731</v>
       </c>
       <c r="H24">
-        <v>0.9325036726544909</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6033418632072767</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.9408069235258836</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9960324864252073</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1352,45 +1490,57 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.569904109028812</v>
+        <v>2.875573978021407</v>
       </c>
       <c r="C25">
-        <v>1.730745567331269</v>
+        <v>0.6593881094356959</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.822967311462747</v>
+        <v>0.06900825375548969</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>7.76163010012155</v>
       </c>
       <c r="G25">
-        <v>0.3733260065811663</v>
+        <v>0.0007837437145204933</v>
       </c>
       <c r="H25">
-        <v>0.7439317106569945</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4922972541197268</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7602937694515646</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7914233123538992</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.366960278680892</v>
+        <v>0.7015186803546385</v>
       </c>
       <c r="C2">
-        <v>0.5381291332328715</v>
+        <v>0.2600214896794455</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04909054864870122</v>
+        <v>0.08341805831310012</v>
       </c>
       <c r="F2">
-        <v>6.540923738638327</v>
+        <v>2.978846149100974</v>
       </c>
       <c r="G2">
-        <v>0.0007997978723724218</v>
+        <v>0.0008432635865053843</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.652894290814416</v>
       </c>
       <c r="J2">
-        <v>0.6366966370228653</v>
+        <v>0.1386627446206887</v>
       </c>
       <c r="K2">
-        <v>0.6497772093254</v>
+        <v>0.9517571946510088</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.3451619475729615</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.036348648318153</v>
+        <v>0.606545293371056</v>
       </c>
       <c r="C3">
-        <v>0.4595701407052672</v>
+        <v>0.2268804096412964</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0376223141857519</v>
+        <v>0.0730329301045991</v>
       </c>
       <c r="F3">
-        <v>5.753522473234909</v>
+        <v>2.737128158184234</v>
       </c>
       <c r="G3">
-        <v>0.0008108689444542471</v>
+        <v>0.0008501167270091321</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.554611581499444</v>
       </c>
       <c r="J3">
-        <v>0.5569636952327528</v>
+        <v>0.1344312067035709</v>
       </c>
       <c r="K3">
-        <v>0.5577756363348172</v>
+        <v>0.8243933248865858</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.299861923031969</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.838783558445726</v>
+        <v>0.5490348268378398</v>
       </c>
       <c r="C4">
-        <v>0.4127037865385432</v>
+        <v>0.2069278472085188</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03135266875727716</v>
+        <v>0.06678688954053413</v>
       </c>
       <c r="F4">
-        <v>5.285316850041596</v>
+        <v>2.592745445722827</v>
       </c>
       <c r="G4">
-        <v>0.0008177894732614004</v>
+        <v>0.0008544414294462525</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.496044771519053</v>
       </c>
       <c r="J4">
-        <v>0.5095194601208135</v>
+        <v>0.1319349475257177</v>
       </c>
       <c r="K4">
-        <v>0.5028191783118956</v>
+        <v>0.7474044032163647</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2725179676788585</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.759444263733116</v>
+        <v>0.5257752515227025</v>
       </c>
       <c r="C5">
-        <v>0.3938961368743321</v>
+        <v>0.1988849379097246</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02896290227591436</v>
+        <v>0.06427158981712111</v>
       </c>
       <c r="F5">
-        <v>5.097788156106247</v>
+        <v>2.534835629064915</v>
       </c>
       <c r="G5">
-        <v>0.0008206442512124251</v>
+        <v>0.0008562342267183051</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.472587065845275</v>
       </c>
       <c r="J5">
-        <v>0.4905044252193136</v>
+        <v>0.1309412339179268</v>
       </c>
       <c r="K5">
-        <v>0.4807530051815405</v>
+        <v>0.716298325301068</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2614804328052571</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.746335407054602</v>
+        <v>0.5219229565381625</v>
       </c>
       <c r="C6">
-        <v>0.3907892601093579</v>
+        <v>0.1975544034364987</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02857528961678746</v>
+        <v>0.06385566099138273</v>
       </c>
       <c r="F6">
-        <v>5.066831234500313</v>
+        <v>2.525273329976955</v>
       </c>
       <c r="G6">
-        <v>0.0008211204759291935</v>
+        <v>0.0008565337880954771</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.468715538641945</v>
       </c>
       <c r="J6">
-        <v>0.4873645961091455</v>
+        <v>0.13077759121974</v>
       </c>
       <c r="K6">
-        <v>0.4771072813221551</v>
+        <v>0.7111482989913611</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2596536606105104</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.837709065669628</v>
+        <v>0.5487204583639596</v>
       </c>
       <c r="C7">
-        <v>0.4124490287112508</v>
+        <v>0.2068190365682625</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03131980606466556</v>
+        <v>0.0667528493573144</v>
       </c>
       <c r="F7">
-        <v>5.282775239591786</v>
+        <v>2.591960809454463</v>
       </c>
       <c r="G7">
-        <v>0.0008178278291143153</v>
+        <v>0.0008544654831991364</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.495726806873137</v>
       </c>
       <c r="J7">
-        <v>0.5092618013849517</v>
+        <v>0.1319214533425637</v>
       </c>
       <c r="K7">
-        <v>0.5025203237342879</v>
+        <v>0.7469838600997605</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2723687015008309</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.25171261411424</v>
+        <v>0.6685890072056679</v>
       </c>
       <c r="C8">
-        <v>0.5107234355409105</v>
+        <v>0.2485048836158228</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04495731156999661</v>
+        <v>0.07980843741757226</v>
       </c>
       <c r="F8">
-        <v>6.265895192343066</v>
+        <v>2.894610454339201</v>
       </c>
       <c r="G8">
-        <v>0.0008035920564162004</v>
+        <v>0.0008456029610245155</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.618613023732067</v>
       </c>
       <c r="J8">
-        <v>0.6088515079245411</v>
+        <v>0.1371812473548459</v>
       </c>
       <c r="K8">
-        <v>0.6177007478170395</v>
+        <v>0.9075668976436475</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.3294367532578875</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.116950336818604</v>
+        <v>0.9112982050647247</v>
       </c>
       <c r="C9">
-        <v>0.7171337837575891</v>
+        <v>0.3339742645054855</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07939692166225498</v>
+        <v>0.1065840115097636</v>
       </c>
       <c r="F9">
-        <v>8.344886217859113</v>
+        <v>3.524383399468434</v>
       </c>
       <c r="G9">
-        <v>0.0007764563551506996</v>
+        <v>0.0008290985851444825</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.875608136507765</v>
       </c>
       <c r="J9">
-        <v>0.8193812978105939</v>
+        <v>0.1484073902953469</v>
       </c>
       <c r="K9">
-        <v>0.8587000709590455</v>
+        <v>1.233951472766478</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.4457208176385521</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.802314624649114</v>
+        <v>1.096238235243362</v>
       </c>
       <c r="C10">
-        <v>0.8818939296388635</v>
+        <v>0.3999336648747374</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1121301767541922</v>
+        <v>0.1271843747685288</v>
       </c>
       <c r="F10">
-        <v>10.01478335405693</v>
+        <v>4.01574827997095</v>
       </c>
       <c r="G10">
-        <v>0.0007566734457624653</v>
+        <v>0.0008174268084459563</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.077089896173078</v>
       </c>
       <c r="J10">
-        <v>0.988782372359708</v>
+        <v>0.1573686139839552</v>
       </c>
       <c r="K10">
-        <v>1.049945770771458</v>
+        <v>1.483608833819346</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.5348083681588918</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.129750380961866</v>
+        <v>1.182302262230962</v>
       </c>
       <c r="C11">
-        <v>0.9610626598232272</v>
+        <v>0.4308534728994005</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1294615856237371</v>
+        <v>0.1368108319722232</v>
       </c>
       <c r="F11">
-        <v>10.81983989084364</v>
+        <v>4.247146475984408</v>
       </c>
       <c r="G11">
-        <v>0.0007476160423371897</v>
+        <v>0.0008121959075321045</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.172224302245795</v>
       </c>
       <c r="J11">
-        <v>1.07060729727371</v>
+        <v>0.1616396157163891</v>
       </c>
       <c r="K11">
-        <v>1.141439641530454</v>
+        <v>1.600046146224116</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.5763777271565971</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.256506609941709</v>
+        <v>1.215216587091163</v>
       </c>
       <c r="C12">
-        <v>0.9917945079502033</v>
+        <v>0.4427147844340027</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1364677642187786</v>
+        <v>0.1404977761287256</v>
       </c>
       <c r="F12">
-        <v>11.13276565535438</v>
+        <v>4.336056078808383</v>
       </c>
       <c r="G12">
-        <v>0.0007441683050680524</v>
+        <v>0.0008102245903275751</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.208817150711738</v>
       </c>
       <c r="J12">
-        <v>1.102444400724835</v>
+        <v>0.1632885916926838</v>
       </c>
       <c r="K12">
-        <v>1.176881835516909</v>
+        <v>1.644617678861152</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.5922920995813996</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.229075127562737</v>
+        <v>1.208112717676045</v>
       </c>
       <c r="C13">
-        <v>0.9851397111878271</v>
+        <v>0.4401530865698078</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1349374154716578</v>
+        <v>0.1397017921099604</v>
       </c>
       <c r="F13">
-        <v>11.06498434761369</v>
+        <v>4.316848096639575</v>
       </c>
       <c r="G13">
-        <v>0.0007449118074736027</v>
+        <v>0.0008106487564700067</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.200909837569839</v>
       </c>
       <c r="J13">
-        <v>1.095546755238701</v>
+        <v>0.162931985168342</v>
       </c>
       <c r="K13">
-        <v>1.169210616440765</v>
+        <v>1.634995938859362</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.5888565690122576</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.140119979858014</v>
+        <v>1.18500337545413</v>
       </c>
       <c r="C14">
-        <v>0.9635749551428319</v>
+        <v>0.4318261209450611</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1300284913029763</v>
+        <v>0.1371132950835516</v>
       </c>
       <c r="F14">
-        <v>10.84541271412292</v>
+        <v>4.25443445767209</v>
       </c>
       <c r="G14">
-        <v>0.000747332815440035</v>
+        <v>0.0008120335463486037</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.175223033269518</v>
       </c>
       <c r="J14">
-        <v>1.073208391378472</v>
+        <v>0.1617746213640032</v>
       </c>
       <c r="K14">
-        <v>1.144338578661277</v>
+        <v>1.603703057421058</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.5776834050839099</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.086009334478035</v>
+        <v>1.170891839222236</v>
       </c>
       <c r="C15">
-        <v>0.9504687885052192</v>
+        <v>0.426746162846797</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1270824939496791</v>
+        <v>0.1355333399244856</v>
       </c>
       <c r="F15">
-        <v>10.71202107860341</v>
+        <v>4.216376322043999</v>
       </c>
       <c r="G15">
-        <v>0.0007488131041983739</v>
+        <v>0.0008128829523121933</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.1595651488161</v>
       </c>
       <c r="J15">
-        <v>1.059642025178022</v>
+        <v>0.1610699389909769</v>
       </c>
       <c r="K15">
-        <v>1.129212309626482</v>
+        <v>1.584599793392954</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.5708627692225363</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.781272344866579</v>
+        <v>1.09065645245505</v>
       </c>
       <c r="C16">
-        <v>0.8768166912938113</v>
+        <v>0.3979331384358886</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1110539935448642</v>
+        <v>0.1265608073180111</v>
       </c>
       <c r="F16">
-        <v>9.963208680137996</v>
+        <v>4.0007969204689</v>
       </c>
       <c r="G16">
-        <v>0.0007572634290671252</v>
+        <v>0.0008177700931137446</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.070948233850018</v>
       </c>
       <c r="J16">
-        <v>0.9835442003031858</v>
+        <v>0.1570937126203731</v>
       </c>
       <c r="K16">
-        <v>1.04406891121279</v>
+        <v>1.476062629436541</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.5321146077798673</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.598668301938233</v>
+        <v>1.041960889554133</v>
       </c>
       <c r="C17">
-        <v>0.8328079868331315</v>
+        <v>0.3805058182656751</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1019046828516394</v>
+        <v>0.1211251571317256</v>
       </c>
       <c r="F17">
-        <v>9.516459689220198</v>
+        <v>3.870665664254659</v>
       </c>
       <c r="G17">
-        <v>0.0007624263757141502</v>
+        <v>0.000820787117866577</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.017521368012908</v>
       </c>
       <c r="J17">
-        <v>0.9381882003066266</v>
+        <v>0.1547067315324639</v>
       </c>
       <c r="K17">
-        <v>0.993083958578822</v>
+        <v>1.410258249756112</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.5086265740923608</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.495077125800321</v>
+        <v>1.014131501469393</v>
       </c>
       <c r="C18">
-        <v>0.8078820452043658</v>
+        <v>0.3705667662652559</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09686529248999065</v>
+        <v>0.1180224170415158</v>
       </c>
       <c r="F18">
-        <v>9.263666508820393</v>
+        <v>3.796548729382721</v>
       </c>
       <c r="G18">
-        <v>0.0007653911759205927</v>
+        <v>0.0008225299516374803</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.987114718197446</v>
       </c>
       <c r="J18">
-        <v>0.9125371235147668</v>
+        <v>0.1533518680133881</v>
       </c>
       <c r="K18">
-        <v>0.9641713221695198</v>
+        <v>1.372674733337817</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.4952135329651313</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.460235999207384</v>
+        <v>1.00473838363348</v>
       </c>
       <c r="C19">
-        <v>0.7995050301791764</v>
+        <v>0.3672155125725283</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09519491219286635</v>
+        <v>0.1169758121636058</v>
       </c>
       <c r="F19">
-        <v>9.178748894803448</v>
+        <v>3.771575212668125</v>
       </c>
       <c r="G19">
-        <v>0.0007663944428104484</v>
+        <v>0.0008231213885955948</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.976873104105451</v>
       </c>
       <c r="J19">
-        <v>0.9039225784743792</v>
+        <v>0.1528961316574851</v>
       </c>
       <c r="K19">
-        <v>0.9544488178216568</v>
+        <v>1.3599932651627</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.4906880483130465</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.617954638040828</v>
+        <v>1.047125773497584</v>
       </c>
       <c r="C20">
-        <v>0.8374518117745708</v>
+        <v>0.3823520765016042</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1028549642240399</v>
+        <v>0.1217013043749766</v>
       </c>
       <c r="F20">
-        <v>9.563575743642133</v>
+        <v>3.884441641638773</v>
       </c>
       <c r="G20">
-        <v>0.0007618773299213899</v>
+        <v>0.0008204651845431777</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.023174848493454</v>
       </c>
       <c r="J20">
-        <v>0.9429701568169833</v>
+        <v>0.1549589347604936</v>
       </c>
       <c r="K20">
-        <v>0.9984677161021551</v>
+        <v>1.417235306431763</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.5111167534870944</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.16616863114325</v>
+        <v>1.191781973794349</v>
       </c>
       <c r="C21">
-        <v>0.9698873003106883</v>
+        <v>0.4342676290129646</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1314574777618134</v>
+        <v>0.1378724282720469</v>
       </c>
       <c r="F21">
-        <v>10.90967324346224</v>
+        <v>4.272730712735324</v>
       </c>
       <c r="G21">
-        <v>0.0007466222790567202</v>
+        <v>0.0008116265572066777</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.182751896508918</v>
       </c>
       <c r="J21">
-        <v>1.079745072625457</v>
+        <v>0.1621136771778708</v>
       </c>
       <c r="K21">
-        <v>1.151621158719266</v>
+        <v>1.612880956980149</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.5809603443014026</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.540890207154064</v>
+        <v>1.288235203139493</v>
       </c>
       <c r="C22">
-        <v>1.060920622787393</v>
+        <v>0.4690988551411124</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1527960404705873</v>
+        <v>0.1486864202774356</v>
       </c>
       <c r="F22">
-        <v>11.83744351821412</v>
+        <v>4.534067787253406</v>
       </c>
       <c r="G22">
-        <v>0.0007365418506459931</v>
+        <v>0.0008059044669964305</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.290389242692584</v>
       </c>
       <c r="J22">
-        <v>1.174207742185729</v>
+        <v>0.1669761460447958</v>
       </c>
       <c r="K22">
-        <v>1.256447222979375</v>
+        <v>1.743576880347831</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.627627870757955</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.339190802751716</v>
+        <v>1.236564892995261</v>
       </c>
       <c r="C23">
-        <v>1.011867220805016</v>
+        <v>0.4504186526779677</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1411279353570016</v>
+        <v>0.1428905876798297</v>
       </c>
       <c r="F23">
-        <v>11.33727584028969</v>
+        <v>4.393840207524931</v>
       </c>
       <c r="G23">
-        <v>0.00074193579576496</v>
+        <v>0.0008089541157352497</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.232610990446204</v>
       </c>
       <c r="J23">
-        <v>1.123261363428327</v>
+        <v>0.1643625744410855</v>
       </c>
       <c r="K23">
-        <v>1.200008292799524</v>
+        <v>1.673538879341095</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.6026188630515605</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.609230992054108</v>
+        <v>1.04479021474242</v>
       </c>
       <c r="C24">
-        <v>0.8353511802524167</v>
+        <v>0.3815171350817366</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1024246612925062</v>
+        <v>0.1214407591498698</v>
       </c>
       <c r="F24">
-        <v>9.542262075765052</v>
+        <v>3.878211361735111</v>
       </c>
       <c r="G24">
-        <v>0.0007621255635839731</v>
+        <v>0.0008206107045327649</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.020617951970237</v>
       </c>
       <c r="J24">
-        <v>0.9408069235258836</v>
+        <v>0.1548448596203116</v>
       </c>
       <c r="K24">
-        <v>0.9960324864252073</v>
+        <v>1.41408021068375</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.5099906630683506</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.875573978021407</v>
+        <v>0.8446294346885281</v>
       </c>
       <c r="C25">
-        <v>0.6593881094356959</v>
+        <v>0.3103669181903399</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06900825375548969</v>
+        <v>0.09919410429174036</v>
       </c>
       <c r="F25">
-        <v>7.76163010012155</v>
+        <v>3.349489802445902</v>
       </c>
       <c r="G25">
-        <v>0.0007837437145204933</v>
+        <v>0.0008334775589697858</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.80408605257135</v>
       </c>
       <c r="J25">
-        <v>0.7602937694515646</v>
+        <v>0.1452574466419136</v>
       </c>
       <c r="K25">
-        <v>0.7914233123538992</v>
+        <v>1.144147982984379</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.413698494614998</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7015186803546385</v>
+        <v>0.3790618328823996</v>
       </c>
       <c r="C2">
-        <v>0.2600214896794455</v>
+        <v>0.1501823978460379</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08341805831310012</v>
+        <v>0.1573397622411221</v>
       </c>
       <c r="F2">
-        <v>2.978846149100974</v>
+        <v>3.437145544801808</v>
       </c>
       <c r="G2">
-        <v>0.0008432635865053843</v>
+        <v>0.002551889553826868</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.652894290814416</v>
+        <v>1.736021053187841</v>
       </c>
       <c r="J2">
-        <v>0.1386627446206887</v>
+        <v>0.1648030239805962</v>
       </c>
       <c r="K2">
-        <v>0.9517571946510088</v>
+        <v>0.5274573011303687</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3451619475729615</v>
+        <v>0.3039608317308549</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.606545293371056</v>
+        <v>0.3565901102324744</v>
       </c>
       <c r="C3">
-        <v>0.2268804096412964</v>
+        <v>0.1419382753181395</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0730329301045991</v>
+        <v>0.1571323646746094</v>
       </c>
       <c r="F3">
-        <v>2.737128158184234</v>
+        <v>3.38593704794944</v>
       </c>
       <c r="G3">
-        <v>0.0008501167270091321</v>
+        <v>0.002555956128537534</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.554611581499444</v>
+        <v>1.710023972944001</v>
       </c>
       <c r="J3">
-        <v>0.1344312067035709</v>
+        <v>0.1634362458668406</v>
       </c>
       <c r="K3">
-        <v>0.8243933248865858</v>
+        <v>0.4969189050714817</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.299861923031969</v>
+        <v>0.2958907610078541</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5490348268378398</v>
+        <v>0.3430754657063915</v>
       </c>
       <c r="C4">
-        <v>0.2069278472085188</v>
+        <v>0.1369663619482822</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06678688954053413</v>
+        <v>0.1571287998695432</v>
       </c>
       <c r="F4">
-        <v>2.592745445722827</v>
+        <v>3.355885465935387</v>
       </c>
       <c r="G4">
-        <v>0.0008544414294462525</v>
+        <v>0.002558583496763259</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.496044771519053</v>
+        <v>1.694497693740033</v>
       </c>
       <c r="J4">
-        <v>0.1319349475257177</v>
+        <v>0.1626174474560074</v>
       </c>
       <c r="K4">
-        <v>0.7474044032163647</v>
+        <v>0.4785386308323041</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2725179676788585</v>
+        <v>0.2911810728126767</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5257752515227025</v>
+        <v>0.3376392832073236</v>
       </c>
       <c r="C5">
-        <v>0.1988849379097246</v>
+        <v>0.1349627664654349</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06427158981712111</v>
+        <v>0.1571585260922532</v>
       </c>
       <c r="F5">
-        <v>2.534835629064915</v>
+        <v>3.343988188309083</v>
       </c>
       <c r="G5">
-        <v>0.0008562342267183051</v>
+        <v>0.002559687087062948</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.472587065845275</v>
+        <v>1.688279673508823</v>
       </c>
       <c r="J5">
-        <v>0.1309412339179268</v>
+        <v>0.1622888673035128</v>
       </c>
       <c r="K5">
-        <v>0.716298325301068</v>
+        <v>0.4711414760866148</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2614804328052571</v>
+        <v>0.2893235508995389</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5219229565381625</v>
+        <v>0.3367409052326309</v>
       </c>
       <c r="C6">
-        <v>0.1975544034364987</v>
+        <v>0.1346314259890136</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06385566099138273</v>
+        <v>0.157165346847858</v>
       </c>
       <c r="F6">
-        <v>2.525273329976955</v>
+        <v>3.342033712008643</v>
       </c>
       <c r="G6">
-        <v>0.0008565337880954771</v>
+        <v>0.002559872328650596</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.468715538641945</v>
+        <v>1.687253746286544</v>
       </c>
       <c r="J6">
-        <v>0.13077759121974</v>
+        <v>0.16223461273065</v>
       </c>
       <c r="K6">
-        <v>0.7111482989913611</v>
+        <v>0.4699187931323365</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2596536606105104</v>
+        <v>0.28901883870288</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5487204583639596</v>
+        <v>0.3430018634334431</v>
       </c>
       <c r="C7">
-        <v>0.2068190365682625</v>
+        <v>0.1369392498354927</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0667528493573144</v>
+        <v>0.1571290744530849</v>
       </c>
       <c r="F7">
-        <v>2.591960809454463</v>
+        <v>3.355723603001309</v>
       </c>
       <c r="G7">
-        <v>0.0008544654831991364</v>
+        <v>0.002558598246633457</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.495726806873137</v>
+        <v>1.694413394524574</v>
       </c>
       <c r="J7">
-        <v>0.1319214533425637</v>
+        <v>0.162612995572097</v>
       </c>
       <c r="K7">
-        <v>0.7469838600997605</v>
+        <v>0.4784384940866744</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2723687015008309</v>
+        <v>0.2911557717222024</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6685890072056679</v>
+        <v>0.3712547955170749</v>
       </c>
       <c r="C8">
-        <v>0.2485048836158228</v>
+        <v>0.1473210584389335</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07980843741757226</v>
+        <v>0.1572425926289007</v>
       </c>
       <c r="F8">
-        <v>2.894610454339201</v>
+        <v>3.419199780909651</v>
       </c>
       <c r="G8">
-        <v>0.0008456029610245155</v>
+        <v>0.002553264693564184</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.618613023732067</v>
+        <v>1.726966403447832</v>
       </c>
       <c r="J8">
-        <v>0.1371812473548459</v>
+        <v>0.1643274954663951</v>
       </c>
       <c r="K8">
-        <v>0.9075668976436475</v>
+        <v>0.516850653302896</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3294367532578875</v>
+        <v>0.3011273492054087</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9112982050647247</v>
+        <v>0.4289103896159077</v>
       </c>
       <c r="C9">
-        <v>0.3339742645054855</v>
+        <v>0.1684012534249177</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1065840115097636</v>
+        <v>0.1584453409377922</v>
       </c>
       <c r="F9">
-        <v>3.524383399468434</v>
+        <v>3.554751884821826</v>
       </c>
       <c r="G9">
-        <v>0.0008290985851444825</v>
+        <v>0.002543835952561643</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.875608136507765</v>
+        <v>1.794292493323951</v>
       </c>
       <c r="J9">
-        <v>0.1484073902953469</v>
+        <v>0.1678537746573028</v>
       </c>
       <c r="K9">
-        <v>1.233951472766478</v>
+        <v>0.5951294658284496</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4457208176385521</v>
+        <v>0.3226296229012604</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.096238235243362</v>
+        <v>0.4726557600151011</v>
       </c>
       <c r="C10">
-        <v>0.3999336648747374</v>
+        <v>0.184340610055159</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1271843747685288</v>
+        <v>0.159924420351178</v>
       </c>
       <c r="F10">
-        <v>4.01574827997095</v>
+        <v>3.661165281432687</v>
       </c>
       <c r="G10">
-        <v>0.0008174268084459563</v>
+        <v>0.002537529875838039</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.077089896173078</v>
+        <v>1.845931540406013</v>
       </c>
       <c r="J10">
-        <v>0.1573686139839552</v>
+        <v>0.1705479265589318</v>
       </c>
       <c r="K10">
-        <v>1.483608833819346</v>
+        <v>0.6544668461505125</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5348083681588918</v>
+        <v>0.3396191426035813</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.182302262230962</v>
+        <v>0.4928608256427367</v>
       </c>
       <c r="C11">
-        <v>0.4308534728994005</v>
+        <v>0.1916926197440318</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1368108319722232</v>
+        <v>0.1607261977765226</v>
       </c>
       <c r="F11">
-        <v>4.247146475984408</v>
+        <v>3.711073449213274</v>
       </c>
       <c r="G11">
-        <v>0.0008121959075321045</v>
+        <v>0.002534794497538796</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.172224302245795</v>
+        <v>1.869906139521419</v>
       </c>
       <c r="J11">
-        <v>0.1616396157163891</v>
+        <v>0.1717967452719193</v>
       </c>
       <c r="K11">
-        <v>1.600046146224116</v>
+        <v>0.6818635670788638</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5763777271565971</v>
+        <v>0.3476080348901149</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.215216587091163</v>
+        <v>0.5005559888098787</v>
       </c>
       <c r="C12">
-        <v>0.4427147844340027</v>
+        <v>0.1944913582398726</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1404977761287256</v>
+        <v>0.1610483121111095</v>
       </c>
       <c r="F12">
-        <v>4.336056078808383</v>
+        <v>3.730189146134791</v>
       </c>
       <c r="G12">
-        <v>0.0008102245903275751</v>
+        <v>0.002533777735522028</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.208817150711738</v>
+        <v>1.879054980783536</v>
       </c>
       <c r="J12">
-        <v>0.1632885916926838</v>
+        <v>0.1722730343401082</v>
       </c>
       <c r="K12">
-        <v>1.644617678861152</v>
+        <v>0.6922964252912038</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5922920995813996</v>
+        <v>0.3506706951044833</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.208112717676045</v>
+        <v>0.498896742109423</v>
       </c>
       <c r="C13">
-        <v>0.4401530865698078</v>
+        <v>0.1938879439639152</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1397017921099604</v>
+        <v>0.1609781169530677</v>
       </c>
       <c r="F13">
-        <v>4.316848096639575</v>
+        <v>3.726062593977076</v>
       </c>
       <c r="G13">
-        <v>0.0008106487564700067</v>
+        <v>0.00253399586707632</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.200909837569839</v>
+        <v>1.87708148292532</v>
       </c>
       <c r="J13">
-        <v>0.162931985168342</v>
+        <v>0.1721703055098871</v>
       </c>
       <c r="K13">
-        <v>1.634995938859362</v>
+        <v>0.6900469251189065</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5888565690122576</v>
+        <v>0.3500094310250219</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.18500337545413</v>
+        <v>0.4934930302147791</v>
       </c>
       <c r="C14">
-        <v>0.4318261209450611</v>
+        <v>0.1919225783200318</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1371132950835516</v>
+        <v>0.1607523278140057</v>
       </c>
       <c r="F14">
-        <v>4.25443445767209</v>
+        <v>3.712641764175032</v>
       </c>
       <c r="G14">
-        <v>0.0008120335463486037</v>
+        <v>0.002534710466346917</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.175223033269518</v>
+        <v>1.870657410114887</v>
       </c>
       <c r="J14">
-        <v>0.1617746213640032</v>
+        <v>0.1718358616784528</v>
       </c>
       <c r="K14">
-        <v>1.603703057421058</v>
+        <v>0.6827207144798138</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5776834050839099</v>
+        <v>0.3478592513465557</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.170891839222236</v>
+        <v>0.4901888256562756</v>
       </c>
       <c r="C15">
-        <v>0.426746162846797</v>
+        <v>0.1907206529774896</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1355333399244856</v>
+        <v>0.1606164332823212</v>
       </c>
       <c r="F15">
-        <v>4.216376322043999</v>
+        <v>3.704449345394124</v>
       </c>
       <c r="G15">
-        <v>0.0008128829523121933</v>
+        <v>0.002535150658962449</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.1595651488161</v>
+        <v>1.866731638064422</v>
       </c>
       <c r="J15">
-        <v>0.1610699389909769</v>
+        <v>0.1716314478629428</v>
       </c>
       <c r="K15">
-        <v>1.584599793392954</v>
+        <v>0.678240800508604</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5708627692225363</v>
+        <v>0.346547080461356</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.09065645245505</v>
+        <v>0.4713414565440814</v>
       </c>
       <c r="C16">
-        <v>0.3979331384358886</v>
+        <v>0.1838621865639993</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1265608073180111</v>
+        <v>0.1598746131970827</v>
       </c>
       <c r="F16">
-        <v>4.0007969204689</v>
+        <v>3.657933923722027</v>
       </c>
       <c r="G16">
-        <v>0.0008177700931137446</v>
+        <v>0.002537711312772093</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.070948233850018</v>
+        <v>1.844374530991345</v>
       </c>
       <c r="J16">
-        <v>0.1570937126203731</v>
+        <v>0.1704667849205421</v>
       </c>
       <c r="K16">
-        <v>1.476062629436541</v>
+        <v>0.6526845529528771</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5321146077798673</v>
+        <v>0.3391022881121373</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.041960889554133</v>
+        <v>0.459857394090335</v>
       </c>
       <c r="C17">
-        <v>0.3805058182656751</v>
+        <v>0.1796807451186737</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1211251571317256</v>
+        <v>0.1594525238267508</v>
       </c>
       <c r="F17">
-        <v>3.870665664254659</v>
+        <v>3.629783040713079</v>
       </c>
       <c r="G17">
-        <v>0.000820787117866577</v>
+        <v>0.002539316257509164</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.017521368012908</v>
+        <v>1.830783507672493</v>
       </c>
       <c r="J17">
-        <v>0.1547067315324639</v>
+        <v>0.1697582867697918</v>
       </c>
       <c r="K17">
-        <v>1.410258249756112</v>
+        <v>0.6371102276656018</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5086265740923608</v>
+        <v>0.3346018196934892</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.014131501469393</v>
+        <v>0.4532807756468173</v>
       </c>
       <c r="C18">
-        <v>0.3705667662652559</v>
+        <v>0.1772851989672972</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1180224170415158</v>
+        <v>0.1592218877674725</v>
       </c>
       <c r="F18">
-        <v>3.796548729382721</v>
+        <v>3.613732551047576</v>
       </c>
       <c r="G18">
-        <v>0.0008225299516374803</v>
+        <v>0.002540251930939658</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.987114718197446</v>
+        <v>1.823011805110141</v>
       </c>
       <c r="J18">
-        <v>0.1533518680133881</v>
+        <v>0.1693529615869025</v>
       </c>
       <c r="K18">
-        <v>1.372674733337817</v>
+        <v>0.6281902849381424</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4952135329651313</v>
+        <v>0.3320377665614629</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.00473838363348</v>
+        <v>0.4510589745619313</v>
       </c>
       <c r="C19">
-        <v>0.3672155125725283</v>
+        <v>0.1764757366875074</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1169758121636058</v>
+        <v>0.1591458844864633</v>
       </c>
       <c r="F19">
-        <v>3.771575212668125</v>
+        <v>3.608322349079117</v>
       </c>
       <c r="G19">
-        <v>0.0008231213885955948</v>
+        <v>0.002540570892718687</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.976873104105451</v>
+        <v>1.820388235010569</v>
       </c>
       <c r="J19">
-        <v>0.1528961316574851</v>
+        <v>0.1692160991427016</v>
       </c>
       <c r="K19">
-        <v>1.3599932651627</v>
+        <v>0.6251766644276984</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4906880483130465</v>
+        <v>0.3311738293237312</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.047125773497584</v>
+        <v>0.46107692020027</v>
       </c>
       <c r="C20">
-        <v>0.3823520765016042</v>
+        <v>0.1801248815264955</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1217013043749766</v>
+        <v>0.159496199976175</v>
       </c>
       <c r="F20">
-        <v>3.884441641638773</v>
+        <v>3.632765135436017</v>
       </c>
       <c r="G20">
-        <v>0.0008204651845431777</v>
+        <v>0.002539144109973135</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.023174848493454</v>
+        <v>1.832225582319992</v>
       </c>
       <c r="J20">
-        <v>0.1549589347604936</v>
+        <v>0.1698334812065951</v>
       </c>
       <c r="K20">
-        <v>1.417235306431763</v>
+        <v>0.6387642068850425</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5111167534870944</v>
+        <v>0.3350783667859289</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.191781973794349</v>
+        <v>0.4950790381602417</v>
       </c>
       <c r="C21">
-        <v>0.4342676290129646</v>
+        <v>0.1924994538962039</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1378724282720469</v>
+        <v>0.1608181458401639</v>
       </c>
       <c r="F21">
-        <v>4.272730712735324</v>
+        <v>3.716577903232547</v>
       </c>
       <c r="G21">
-        <v>0.0008116265572066777</v>
+        <v>0.002534500054566445</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.182751896508918</v>
+        <v>1.872542406386032</v>
       </c>
       <c r="J21">
-        <v>0.1621136771778708</v>
+        <v>0.1719340035984516</v>
       </c>
       <c r="K21">
-        <v>1.612880956980149</v>
+        <v>0.6848710155286426</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5809603443014026</v>
+        <v>0.3484897950041912</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.288235203139493</v>
+        <v>0.5175575616494825</v>
       </c>
       <c r="C22">
-        <v>0.4690988551411124</v>
+        <v>0.2006726602070614</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1486864202774356</v>
+        <v>0.1617899194145025</v>
       </c>
       <c r="F22">
-        <v>4.534067787253406</v>
+        <v>3.772617045276689</v>
       </c>
       <c r="G22">
-        <v>0.0008059044669964305</v>
+        <v>0.00253157598383659</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.290389242692584</v>
+        <v>1.899301137857236</v>
       </c>
       <c r="J22">
-        <v>0.1669761460447958</v>
+        <v>0.1733265892234144</v>
       </c>
       <c r="K22">
-        <v>1.743576880347831</v>
+        <v>0.7153445001086709</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.627627870757955</v>
+        <v>0.3574731768257635</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.236564892995261</v>
+        <v>0.505536884795049</v>
       </c>
       <c r="C23">
-        <v>0.4504186526779677</v>
+        <v>0.1963025732925985</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1428905876798297</v>
+        <v>0.1612614149624747</v>
       </c>
       <c r="F23">
-        <v>4.393840207524931</v>
+        <v>3.742592089877149</v>
       </c>
       <c r="G23">
-        <v>0.0008089541157352497</v>
+        <v>0.002533126483736246</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.232610990446204</v>
+        <v>1.884981838080577</v>
       </c>
       <c r="J23">
-        <v>0.1643625744410855</v>
+        <v>0.1725815152457244</v>
       </c>
       <c r="K23">
-        <v>1.673538879341095</v>
+        <v>0.6990490341567579</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6026188630515605</v>
+        <v>0.3526586028099103</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.04479021474242</v>
+        <v>0.4605254923320388</v>
       </c>
       <c r="C24">
-        <v>0.3815171350817366</v>
+        <v>0.1799240612409392</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1214407591498698</v>
+        <v>0.159476416518487</v>
       </c>
       <c r="F24">
-        <v>3.878211361735111</v>
+        <v>3.631416513609679</v>
       </c>
       <c r="G24">
-        <v>0.0008206107045327649</v>
+        <v>0.00253922189763611</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.020617951970237</v>
+        <v>1.831573489719858</v>
       </c>
       <c r="J24">
-        <v>0.1548448596203116</v>
+        <v>0.1697994795766107</v>
       </c>
       <c r="K24">
-        <v>1.41408021068375</v>
+        <v>0.6380163371679259</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5099906630683506</v>
+        <v>0.3348628471896902</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8446294346885281</v>
+        <v>0.413070631904418</v>
       </c>
       <c r="C25">
-        <v>0.3103669181903399</v>
+        <v>0.162620038394067</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09919410429174036</v>
+        <v>0.1580152572623881</v>
       </c>
       <c r="F25">
-        <v>3.349489802445902</v>
+        <v>3.516888399337944</v>
       </c>
       <c r="G25">
-        <v>0.0008334775589697858</v>
+        <v>0.002546277087632029</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.80408605257135</v>
+        <v>1.775700531245846</v>
       </c>
       <c r="J25">
-        <v>0.1452574466419136</v>
+        <v>0.1668819053058783</v>
       </c>
       <c r="K25">
-        <v>1.144147982984379</v>
+        <v>0.5736342189110815</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.413698494614998</v>
+        <v>0.3166037144124374</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3790618328823996</v>
+        <v>0.7015186803546101</v>
       </c>
       <c r="C2">
-        <v>0.1501823978460379</v>
+        <v>0.2600214896796444</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1573397622411221</v>
+        <v>0.08341805831310367</v>
       </c>
       <c r="F2">
-        <v>3.437145544801808</v>
+        <v>2.978846149100974</v>
       </c>
       <c r="G2">
-        <v>0.002551889553826868</v>
+        <v>0.000843263586503995</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.736021053187841</v>
+        <v>1.65289429081443</v>
       </c>
       <c r="J2">
-        <v>0.1648030239805962</v>
+        <v>0.1386627446206887</v>
       </c>
       <c r="K2">
-        <v>0.5274573011303687</v>
+        <v>0.9517571946509804</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3039608317308549</v>
+        <v>0.3451619475729615</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3565901102324744</v>
+        <v>0.6065452933710276</v>
       </c>
       <c r="C3">
-        <v>0.1419382753181395</v>
+        <v>0.2268804096413959</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1571323646746094</v>
+        <v>0.07303293010460266</v>
       </c>
       <c r="F3">
-        <v>3.38593704794944</v>
+        <v>2.737128158184234</v>
       </c>
       <c r="G3">
-        <v>0.002555956128537534</v>
+        <v>0.0008501167270093466</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.710023972944001</v>
+        <v>1.554611581499415</v>
       </c>
       <c r="J3">
-        <v>0.1634362458668406</v>
+        <v>0.1344312067035673</v>
       </c>
       <c r="K3">
-        <v>0.4969189050714817</v>
+        <v>0.8243933248865289</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2958907610078541</v>
+        <v>0.299861923031969</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3430754657063915</v>
+        <v>0.5490348268378682</v>
       </c>
       <c r="C4">
-        <v>0.1369663619482822</v>
+        <v>0.2069278472084193</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1571287998695432</v>
+        <v>0.06678688954052348</v>
       </c>
       <c r="F4">
-        <v>3.355885465935387</v>
+        <v>2.592745445722798</v>
       </c>
       <c r="G4">
-        <v>0.002558583496763259</v>
+        <v>0.0008544414293877108</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.694497693740033</v>
+        <v>1.496044771519053</v>
       </c>
       <c r="J4">
-        <v>0.1626174474560074</v>
+        <v>0.1319349475257248</v>
       </c>
       <c r="K4">
-        <v>0.4785386308323041</v>
+        <v>0.7474044032163647</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2911810728126767</v>
+        <v>0.2725179676788727</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3376392832073236</v>
+        <v>0.5257752515227025</v>
       </c>
       <c r="C5">
-        <v>0.1349627664654349</v>
+        <v>0.1988849379099378</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1571585260922532</v>
+        <v>0.06427158981714953</v>
       </c>
       <c r="F5">
-        <v>3.343988188309083</v>
+        <v>2.534835629064915</v>
       </c>
       <c r="G5">
-        <v>0.002559687087062948</v>
+        <v>0.0008562342267329512</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.688279673508823</v>
+        <v>1.472587065845289</v>
       </c>
       <c r="J5">
-        <v>0.1622888673035128</v>
+        <v>0.1309412339178877</v>
       </c>
       <c r="K5">
-        <v>0.4711414760866148</v>
+        <v>0.7162983253010111</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2893235508995389</v>
+        <v>0.2614804328052465</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3367409052326309</v>
+        <v>0.5219229565381909</v>
       </c>
       <c r="C6">
-        <v>0.1346314259890136</v>
+        <v>0.1975544034367545</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.157165346847858</v>
+        <v>0.06385566099141471</v>
       </c>
       <c r="F6">
-        <v>3.342033712008643</v>
+        <v>2.525273329976955</v>
       </c>
       <c r="G6">
-        <v>0.002559872328650596</v>
+        <v>0.0008565337880075021</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.687253746286544</v>
+        <v>1.468715538641945</v>
       </c>
       <c r="J6">
-        <v>0.16223461273065</v>
+        <v>0.1307775912196156</v>
       </c>
       <c r="K6">
-        <v>0.4699187931323365</v>
+        <v>0.7111482989913895</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.28901883870288</v>
+        <v>0.2596536606105424</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3430018634334431</v>
+        <v>0.5487204583638174</v>
       </c>
       <c r="C7">
-        <v>0.1369392498354927</v>
+        <v>0.2068190365683904</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1571290744530849</v>
+        <v>0.06675284935735704</v>
       </c>
       <c r="F7">
-        <v>3.355723603001309</v>
+        <v>2.591960809454463</v>
       </c>
       <c r="G7">
-        <v>0.002558598246633457</v>
+        <v>0.0008544654830822118</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.694413394524574</v>
+        <v>1.495726806873179</v>
       </c>
       <c r="J7">
-        <v>0.162612995572097</v>
+        <v>0.1319214533425388</v>
       </c>
       <c r="K7">
-        <v>0.4784384940866744</v>
+        <v>0.7469838600996184</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2911557717222024</v>
+        <v>0.272368701500838</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3712547955170749</v>
+        <v>0.6685890072056964</v>
       </c>
       <c r="C8">
-        <v>0.1473210584389335</v>
+        <v>0.2485048836156523</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1572425926289007</v>
+        <v>0.07980843741760424</v>
       </c>
       <c r="F8">
-        <v>3.419199780909651</v>
+        <v>2.894610454339158</v>
       </c>
       <c r="G8">
-        <v>0.002553264693564184</v>
+        <v>0.0008456029610208636</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.726966403447832</v>
+        <v>1.618613023732067</v>
       </c>
       <c r="J8">
-        <v>0.1643274954663951</v>
+        <v>0.1371812473547891</v>
       </c>
       <c r="K8">
-        <v>0.516850653302896</v>
+        <v>0.9075668976437044</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3011273492054087</v>
+        <v>0.3294367532578875</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4289103896159077</v>
+        <v>0.9112982050646963</v>
       </c>
       <c r="C9">
-        <v>0.1684012534249177</v>
+        <v>0.3339742645054571</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1584453409377922</v>
+        <v>0.1065840115097778</v>
       </c>
       <c r="F9">
-        <v>3.554751884821826</v>
+        <v>3.524383399468491</v>
       </c>
       <c r="G9">
-        <v>0.002543835952561643</v>
+        <v>0.0008290985851429708</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.794292493323951</v>
+        <v>1.875608136507751</v>
       </c>
       <c r="J9">
-        <v>0.1678537746573028</v>
+        <v>0.1484073902953114</v>
       </c>
       <c r="K9">
-        <v>0.5951294658284496</v>
+        <v>1.233951472766449</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3226296229012604</v>
+        <v>0.4457208176385521</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4726557600151011</v>
+        <v>1.096238235243305</v>
       </c>
       <c r="C10">
-        <v>0.184340610055159</v>
+        <v>0.3999336648747658</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.159924420351178</v>
+        <v>0.1271843747685004</v>
       </c>
       <c r="F10">
-        <v>3.661165281432687</v>
+        <v>4.015748279970921</v>
       </c>
       <c r="G10">
-        <v>0.002537529875838039</v>
+        <v>0.0008174268082571837</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.845931540406013</v>
+        <v>2.077089896173106</v>
       </c>
       <c r="J10">
-        <v>0.1705479265589318</v>
+        <v>0.1573686139838273</v>
       </c>
       <c r="K10">
-        <v>0.6544668461505125</v>
+        <v>1.483608833819375</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3396191426035813</v>
+        <v>0.5348083681588918</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4928608256427367</v>
+        <v>1.182302262230962</v>
       </c>
       <c r="C11">
-        <v>0.1916926197440318</v>
+        <v>0.4308534728996278</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1607261977765226</v>
+        <v>0.1368108319722126</v>
       </c>
       <c r="F11">
-        <v>3.711073449213274</v>
+        <v>4.24714647598438</v>
       </c>
       <c r="G11">
-        <v>0.002534794497538796</v>
+        <v>0.0008121959075435215</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.869906139521419</v>
+        <v>2.172224302245809</v>
       </c>
       <c r="J11">
-        <v>0.1717967452719193</v>
+        <v>0.1616396157165028</v>
       </c>
       <c r="K11">
-        <v>0.6818635670788638</v>
+        <v>1.600046146224088</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3476080348901149</v>
+        <v>0.5763777271565971</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5005559888098787</v>
+        <v>1.215216587090993</v>
       </c>
       <c r="C12">
-        <v>0.1944913582398726</v>
+        <v>0.4427147844337185</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1610483121111095</v>
+        <v>0.1404977761287256</v>
       </c>
       <c r="F12">
-        <v>3.730189146134791</v>
+        <v>4.336056078808355</v>
       </c>
       <c r="G12">
-        <v>0.002533777735522028</v>
+        <v>0.0008102245903410398</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.879054980783536</v>
+        <v>2.208817150711752</v>
       </c>
       <c r="J12">
-        <v>0.1722730343401082</v>
+        <v>0.1632885916927052</v>
       </c>
       <c r="K12">
-        <v>0.6922964252912038</v>
+        <v>1.644617678861266</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3506706951044833</v>
+        <v>0.5922920995813925</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.498896742109423</v>
+        <v>1.208112717676045</v>
       </c>
       <c r="C13">
-        <v>0.1938879439639152</v>
+        <v>0.4401530865700636</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1609781169530677</v>
+        <v>0.1397017921099959</v>
       </c>
       <c r="F13">
-        <v>3.726062593977076</v>
+        <v>4.316848096639546</v>
       </c>
       <c r="G13">
-        <v>0.00253399586707632</v>
+        <v>0.0008106487564147449</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.87708148292532</v>
+        <v>2.200909837569839</v>
       </c>
       <c r="J13">
-        <v>0.1721703055098871</v>
+        <v>0.1629319851683775</v>
       </c>
       <c r="K13">
-        <v>0.6900469251189065</v>
+        <v>1.63499593885939</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3500094310250219</v>
+        <v>0.5888565690122718</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4934930302147791</v>
+        <v>1.185003375454016</v>
       </c>
       <c r="C14">
-        <v>0.1919225783200318</v>
+        <v>0.4318261209445495</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1607523278140057</v>
+        <v>0.1371132950835552</v>
       </c>
       <c r="F14">
-        <v>3.712641764175032</v>
+        <v>4.254434457672119</v>
       </c>
       <c r="G14">
-        <v>0.002534710466346917</v>
+        <v>0.0008120335464670794</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.870657410114887</v>
+        <v>2.175223033269532</v>
       </c>
       <c r="J14">
-        <v>0.1718358616784528</v>
+        <v>0.1617746213639535</v>
       </c>
       <c r="K14">
-        <v>0.6827207144798138</v>
+        <v>1.603703057420915</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3478592513465557</v>
+        <v>0.5776834050838744</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4901888256562756</v>
+        <v>1.170891839222179</v>
       </c>
       <c r="C15">
-        <v>0.1907206529774896</v>
+        <v>0.4267461628465412</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1606164332823212</v>
+        <v>0.1355333399244749</v>
       </c>
       <c r="F15">
-        <v>3.704449345394124</v>
+        <v>4.216376322043971</v>
       </c>
       <c r="G15">
-        <v>0.002535150658962449</v>
+        <v>0.0008128829523633145</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.866731638064422</v>
+        <v>2.1595651488161</v>
       </c>
       <c r="J15">
-        <v>0.1716314478629428</v>
+        <v>0.1610699389909271</v>
       </c>
       <c r="K15">
-        <v>0.678240800508604</v>
+        <v>1.584599793392925</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.346547080461356</v>
+        <v>0.5708627692225434</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4713414565440814</v>
+        <v>1.09065645245488</v>
       </c>
       <c r="C16">
-        <v>0.1838621865639993</v>
+        <v>0.3979331384358318</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1598746131970827</v>
+        <v>0.1265608073180253</v>
       </c>
       <c r="F16">
-        <v>3.657933923722027</v>
+        <v>4.0007969204689</v>
       </c>
       <c r="G16">
-        <v>0.002537711312772093</v>
+        <v>0.000817770093230238</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.844374530991345</v>
+        <v>2.070948233850046</v>
       </c>
       <c r="J16">
-        <v>0.1704667849205421</v>
+        <v>0.1570937126201244</v>
       </c>
       <c r="K16">
-        <v>0.6526845529528771</v>
+        <v>1.476062629436598</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3391022881121373</v>
+        <v>0.5321146077798673</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.459857394090335</v>
+        <v>1.041960889554019</v>
       </c>
       <c r="C17">
-        <v>0.1796807451186737</v>
+        <v>0.3805058182656182</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1594525238267508</v>
+        <v>0.12112515713169</v>
       </c>
       <c r="F17">
-        <v>3.629783040713079</v>
+        <v>3.870665664254687</v>
       </c>
       <c r="G17">
-        <v>0.002539316257509164</v>
+        <v>0.0008207871178627557</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.830783507672493</v>
+        <v>2.017521368012922</v>
       </c>
       <c r="J17">
-        <v>0.1697582867697918</v>
+        <v>0.1547067315325066</v>
       </c>
       <c r="K17">
-        <v>0.6371102276656018</v>
+        <v>1.410258249756168</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3346018196934892</v>
+        <v>0.5086265740923679</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4532807756468173</v>
+        <v>1.014131501469421</v>
       </c>
       <c r="C18">
-        <v>0.1772851989672972</v>
+        <v>0.3705667662654832</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1592218877674725</v>
+        <v>0.1180224170414874</v>
       </c>
       <c r="F18">
-        <v>3.613732551047576</v>
+        <v>3.796548729382778</v>
       </c>
       <c r="G18">
-        <v>0.002540251930939658</v>
+        <v>0.0008225299515800817</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.823011805110141</v>
+        <v>1.987114718197446</v>
       </c>
       <c r="J18">
-        <v>0.1693529615869025</v>
+        <v>0.1533518680134023</v>
       </c>
       <c r="K18">
-        <v>0.6281902849381424</v>
+        <v>1.372674733337789</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3320377665614629</v>
+        <v>0.4952135329651242</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4510589745619313</v>
+        <v>1.004738383633509</v>
       </c>
       <c r="C19">
-        <v>0.1764757366875074</v>
+        <v>0.3672155125727272</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1591458844864633</v>
+        <v>0.116975812163556</v>
       </c>
       <c r="F19">
-        <v>3.608322349079117</v>
+        <v>3.771575212668154</v>
       </c>
       <c r="G19">
-        <v>0.002540570892718687</v>
+        <v>0.0008231213886480545</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.820388235010569</v>
+        <v>1.976873104105451</v>
       </c>
       <c r="J19">
-        <v>0.1692160991427016</v>
+        <v>0.1528961316574495</v>
       </c>
       <c r="K19">
-        <v>0.6251766644276984</v>
+        <v>1.359993265162728</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3311738293237312</v>
+        <v>0.4906880483130394</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.46107692020027</v>
+        <v>1.047125773497555</v>
       </c>
       <c r="C20">
-        <v>0.1801248815264955</v>
+        <v>0.3823520765020589</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.159496199976175</v>
+        <v>0.1217013043750192</v>
       </c>
       <c r="F20">
-        <v>3.632765135436017</v>
+        <v>3.884441641638801</v>
       </c>
       <c r="G20">
-        <v>0.002539144109973135</v>
+        <v>0.0008204651844878957</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.832225582319992</v>
+        <v>2.023174848493468</v>
       </c>
       <c r="J20">
-        <v>0.1698334812065951</v>
+        <v>0.1549589347604297</v>
       </c>
       <c r="K20">
-        <v>0.6387642068850425</v>
+        <v>1.417235306431792</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3350783667859289</v>
+        <v>0.5111167534870944</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4950790381602417</v>
+        <v>1.191781973794349</v>
       </c>
       <c r="C21">
-        <v>0.1924994538962039</v>
+        <v>0.4342676290132204</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1608181458401639</v>
+        <v>0.1378724282720896</v>
       </c>
       <c r="F21">
-        <v>3.716577903232547</v>
+        <v>4.272730712735324</v>
       </c>
       <c r="G21">
-        <v>0.002534500054566445</v>
+        <v>0.0008116265572053486</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.872542406386032</v>
+        <v>2.182751896508918</v>
       </c>
       <c r="J21">
-        <v>0.1719340035984516</v>
+        <v>0.1621136771778993</v>
       </c>
       <c r="K21">
-        <v>0.6848710155286426</v>
+        <v>1.612880956980121</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3484897950041912</v>
+        <v>0.5809603443014169</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5175575616494825</v>
+        <v>1.288235203139635</v>
       </c>
       <c r="C22">
-        <v>0.2006726602070614</v>
+        <v>0.4690988551413966</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1617899194145025</v>
+        <v>0.1486864202774072</v>
       </c>
       <c r="F22">
-        <v>3.772617045276689</v>
+        <v>4.534067787253349</v>
       </c>
       <c r="G22">
-        <v>0.00253157598383659</v>
+        <v>0.0008059044670020181</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.899301137857236</v>
+        <v>2.290389242692584</v>
       </c>
       <c r="J22">
-        <v>0.1733265892234144</v>
+        <v>0.1669761460450303</v>
       </c>
       <c r="K22">
-        <v>0.7153445001086709</v>
+        <v>1.743576880347746</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3574731768257635</v>
+        <v>0.6276278707579337</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.505536884795049</v>
+        <v>1.236564892995233</v>
       </c>
       <c r="C23">
-        <v>0.1963025732925985</v>
+        <v>0.4504186526779677</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1612614149624747</v>
+        <v>0.1428905876798154</v>
       </c>
       <c r="F23">
-        <v>3.742592089877149</v>
+        <v>4.393840207524903</v>
       </c>
       <c r="G23">
-        <v>0.002533126483736246</v>
+        <v>0.0008089541158662634</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.884981838080577</v>
+        <v>2.232610990446176</v>
       </c>
       <c r="J23">
-        <v>0.1725815152457244</v>
+        <v>0.1643625744412418</v>
       </c>
       <c r="K23">
-        <v>0.6990490341567579</v>
+        <v>1.673538879341095</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3526586028099103</v>
+        <v>0.6026188630515534</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4605254923320388</v>
+        <v>1.044790214742477</v>
       </c>
       <c r="C24">
-        <v>0.1799240612409392</v>
+        <v>0.3815171350817366</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.159476416518487</v>
+        <v>0.1214407591498627</v>
       </c>
       <c r="F24">
-        <v>3.631416513609679</v>
+        <v>3.878211361735111</v>
       </c>
       <c r="G24">
-        <v>0.00253922189763611</v>
+        <v>0.0008206107044710655</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.831573489719858</v>
+        <v>2.020617951970237</v>
       </c>
       <c r="J24">
-        <v>0.1697994795766107</v>
+        <v>0.1548448596204182</v>
       </c>
       <c r="K24">
-        <v>0.6380163371679259</v>
+        <v>1.414080210683778</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3348628471896902</v>
+        <v>0.5099906630683577</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.413070631904418</v>
+        <v>0.8446294346884713</v>
       </c>
       <c r="C25">
-        <v>0.162620038394067</v>
+        <v>0.3103669181903399</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1580152572623881</v>
+        <v>0.09919410429176523</v>
       </c>
       <c r="F25">
-        <v>3.516888399337944</v>
+        <v>3.349489802445902</v>
       </c>
       <c r="G25">
-        <v>0.002546277087632029</v>
+        <v>0.0008334775590269048</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.775700531245846</v>
+        <v>1.804086052571378</v>
       </c>
       <c r="J25">
-        <v>0.1668819053058783</v>
+        <v>0.1452574466418994</v>
       </c>
       <c r="K25">
-        <v>0.5736342189110815</v>
+        <v>1.144147982984322</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3166037144124374</v>
+        <v>0.4136984946149695</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7015186803546101</v>
+        <v>0.9777944377234178</v>
       </c>
       <c r="C2">
-        <v>0.2600214896796444</v>
+        <v>0.2050243009797015</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08341805831310367</v>
+        <v>0.8648693910054988</v>
       </c>
       <c r="F2">
-        <v>2.978846149100974</v>
+        <v>2.222751326039401</v>
       </c>
       <c r="G2">
-        <v>0.000843263586503995</v>
+        <v>0.5324952319987943</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.956624516181066E-05</v>
       </c>
       <c r="I2">
-        <v>1.65289429081443</v>
+        <v>0.003597342689192207</v>
       </c>
       <c r="J2">
-        <v>0.1386627446206887</v>
+        <v>0.4338246871716933</v>
       </c>
       <c r="K2">
-        <v>0.9517571946509804</v>
+        <v>0.3896858545164399</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.05965655354100008</v>
       </c>
       <c r="M2">
-        <v>0.3451619475729615</v>
+        <v>1.131777432692218</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6065452933710276</v>
+        <v>0.8512914135529286</v>
       </c>
       <c r="C3">
-        <v>0.2268804096413959</v>
+        <v>0.1784464079180879</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07303293010460266</v>
+        <v>0.755230675336648</v>
       </c>
       <c r="F3">
-        <v>2.737128158184234</v>
+        <v>2.015607119909475</v>
       </c>
       <c r="G3">
-        <v>0.0008501167270093466</v>
+        <v>0.5206011959431223</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0007248962427428562</v>
       </c>
       <c r="I3">
-        <v>1.554611581499415</v>
+        <v>0.005379092546440312</v>
       </c>
       <c r="J3">
-        <v>0.1344312067035673</v>
+        <v>0.4341113807020491</v>
       </c>
       <c r="K3">
-        <v>0.8243933248865289</v>
+        <v>0.393748870832912</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.05497303102124107</v>
       </c>
       <c r="M3">
-        <v>0.299861923031969</v>
+        <v>0.9854472605806279</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5490348268378682</v>
+        <v>0.7734726451620304</v>
       </c>
       <c r="C4">
-        <v>0.2069278472084193</v>
+        <v>0.1623753861193791</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06678688954052348</v>
+        <v>0.6882657110630674</v>
       </c>
       <c r="F4">
-        <v>2.592745445722798</v>
+        <v>1.889064841103959</v>
       </c>
       <c r="G4">
-        <v>0.0008544414293877108</v>
+        <v>0.5137225258862728</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.001472146792678375</v>
       </c>
       <c r="I4">
-        <v>1.496044771519053</v>
+        <v>0.006745522689221684</v>
       </c>
       <c r="J4">
-        <v>0.1319349475257248</v>
+        <v>0.4345713973033369</v>
       </c>
       <c r="K4">
-        <v>0.7474044032163647</v>
+        <v>0.3964624203161051</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.052057958478267</v>
       </c>
       <c r="M4">
-        <v>0.2725179676788727</v>
+        <v>0.8957768983458436</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5257752515227025</v>
+        <v>0.7414316719254259</v>
       </c>
       <c r="C5">
-        <v>0.1988849379099378</v>
+        <v>0.1563001817556824</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06427158981714953</v>
+        <v>0.6618031543677603</v>
       </c>
       <c r="F5">
-        <v>2.534835629064915</v>
+        <v>1.836447047651049</v>
       </c>
       <c r="G5">
-        <v>0.0008562342267329512</v>
+        <v>0.509901649597694</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.001861306351792269</v>
       </c>
       <c r="I5">
-        <v>1.472587065845289</v>
+        <v>0.007449152256900238</v>
       </c>
       <c r="J5">
-        <v>0.1309412339178877</v>
+        <v>0.4342393340272181</v>
       </c>
       <c r="K5">
-        <v>0.7162983253010111</v>
+        <v>0.3969042731903336</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.05078480665792107</v>
       </c>
       <c r="M5">
-        <v>0.2614804328052465</v>
+        <v>0.8596119135429205</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5219229565381909</v>
+        <v>0.7357578617813374</v>
       </c>
       <c r="C6">
-        <v>0.1975544034367545</v>
+        <v>0.1558067054672136</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06385566099141471</v>
+        <v>0.6583305393023267</v>
       </c>
       <c r="F6">
-        <v>2.525273329976955</v>
+        <v>1.826264618243314</v>
       </c>
       <c r="G6">
-        <v>0.0008565337880075021</v>
+        <v>0.5079107447157583</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.001932015720538027</v>
       </c>
       <c r="I6">
-        <v>1.468715538641945</v>
+        <v>0.007676943405956926</v>
       </c>
       <c r="J6">
-        <v>0.1307775912196156</v>
+        <v>0.433471278129602</v>
       </c>
       <c r="K6">
-        <v>0.7111482989913895</v>
+        <v>0.3961082511479646</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.05048199755163019</v>
       </c>
       <c r="M6">
-        <v>0.2596536606105424</v>
+        <v>0.8540293900044276</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5487204583638174</v>
+        <v>0.7720791704792873</v>
       </c>
       <c r="C7">
-        <v>0.2068190365683904</v>
+        <v>0.1636941280283111</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06675284935735704</v>
+        <v>0.69041799650131</v>
       </c>
       <c r="F7">
-        <v>2.591960809454463</v>
+        <v>1.884384001646694</v>
       </c>
       <c r="G7">
-        <v>0.0008544654830822118</v>
+        <v>0.5099513914950933</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.00147974506556281</v>
       </c>
       <c r="I7">
-        <v>1.495726806873179</v>
+        <v>0.007030136898630523</v>
       </c>
       <c r="J7">
-        <v>0.1319214533425388</v>
+        <v>0.4326121394892866</v>
       </c>
       <c r="K7">
-        <v>0.7469838600996184</v>
+        <v>0.3940882015053226</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.05179225221647421</v>
       </c>
       <c r="M7">
-        <v>0.272368701500838</v>
+        <v>0.8964414108783672</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6685890072056964</v>
+        <v>0.932914410778551</v>
       </c>
       <c r="C8">
-        <v>0.2485048836156523</v>
+        <v>0.1976744444073262</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07980843741760424</v>
+        <v>0.8303302003201338</v>
       </c>
       <c r="F8">
-        <v>2.894610454339158</v>
+        <v>2.145913850908613</v>
       </c>
       <c r="G8">
-        <v>0.0008456029610208636</v>
+        <v>0.5234004881756533</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0002277505633454524</v>
       </c>
       <c r="I8">
-        <v>1.618613023732067</v>
+        <v>0.004480026660051983</v>
       </c>
       <c r="J8">
-        <v>0.1371812473547891</v>
+        <v>0.4312985119733526</v>
       </c>
       <c r="K8">
-        <v>0.9075668976437044</v>
+        <v>0.3879177465185819</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.05771748846064995</v>
       </c>
       <c r="M8">
-        <v>0.3294367532578875</v>
+        <v>1.082814960608204</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9112982050646963</v>
+        <v>1.249221169953842</v>
       </c>
       <c r="C9">
-        <v>0.3339742645054571</v>
+        <v>0.2640215845858762</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1065840115097778</v>
+        <v>1.103508809776486</v>
       </c>
       <c r="F9">
-        <v>3.524383399468491</v>
+        <v>2.672254031336536</v>
       </c>
       <c r="G9">
-        <v>0.0008290985851429708</v>
+        <v>0.5601620991316594</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0007723611549086407</v>
       </c>
       <c r="I9">
-        <v>1.875608136507751</v>
+        <v>0.001390152792806632</v>
       </c>
       <c r="J9">
-        <v>0.1484073902953114</v>
+        <v>0.4346056760252139</v>
       </c>
       <c r="K9">
-        <v>1.233951472766449</v>
+        <v>0.3819128217172896</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.06952320011784607</v>
       </c>
       <c r="M9">
-        <v>0.4457208176385521</v>
+        <v>1.44819704979443</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.096238235243305</v>
+        <v>1.481836827450451</v>
       </c>
       <c r="C10">
-        <v>0.3999336648747658</v>
+        <v>0.3135229598985916</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1271843747685004</v>
+        <v>1.269713616208492</v>
       </c>
       <c r="F10">
-        <v>4.015748279970921</v>
+        <v>2.99983575695947</v>
       </c>
       <c r="G10">
-        <v>0.0008174268082571837</v>
+        <v>0.5775791887807173</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.003265207944199044</v>
       </c>
       <c r="I10">
-        <v>2.077089896173106</v>
+        <v>0.0009031717796954553</v>
       </c>
       <c r="J10">
-        <v>0.1573686139838273</v>
+        <v>0.4324387316062257</v>
       </c>
       <c r="K10">
-        <v>1.483608833819375</v>
+        <v>0.3723414356293411</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.07434790497574539</v>
       </c>
       <c r="M10">
-        <v>0.5348083681588918</v>
+        <v>1.717577390886049</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.182302262230962</v>
+        <v>1.59275792437478</v>
       </c>
       <c r="C11">
-        <v>0.4308534728996278</v>
+        <v>0.3236293490529931</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1368108319722126</v>
+        <v>1.032424603135269</v>
       </c>
       <c r="F11">
-        <v>4.24714647598438</v>
+        <v>2.617023811412267</v>
       </c>
       <c r="G11">
-        <v>0.0008121959075435215</v>
+        <v>0.4922611392786678</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02144059157508948</v>
       </c>
       <c r="I11">
-        <v>2.172224302245809</v>
+        <v>0.001440895932294239</v>
       </c>
       <c r="J11">
-        <v>0.1616396157165028</v>
+        <v>0.38421198438391</v>
       </c>
       <c r="K11">
-        <v>1.600046146224088</v>
+        <v>0.3211308030354836</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.05408693309364665</v>
       </c>
       <c r="M11">
-        <v>0.5763777271565971</v>
+        <v>1.827328222569321</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.215216587090993</v>
+        <v>1.639155231733895</v>
       </c>
       <c r="C12">
-        <v>0.4427147844337185</v>
+        <v>0.3191744403695509</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1404977761287256</v>
+        <v>0.8172312800654424</v>
       </c>
       <c r="F12">
-        <v>4.336056078808355</v>
+        <v>2.254840056125062</v>
       </c>
       <c r="G12">
-        <v>0.0008102245903410398</v>
+        <v>0.4268918013507346</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05952225845324932</v>
       </c>
       <c r="I12">
-        <v>2.208817150711752</v>
+        <v>0.001451725341699017</v>
       </c>
       <c r="J12">
-        <v>0.1632885916927052</v>
+        <v>0.3490154234487051</v>
       </c>
       <c r="K12">
-        <v>1.644617678861266</v>
+        <v>0.2867199940480312</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.04895691875388497</v>
       </c>
       <c r="M12">
-        <v>0.5922920995813925</v>
+        <v>1.860722164299887</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.208112717676045</v>
+        <v>1.636555463316796</v>
       </c>
       <c r="C13">
-        <v>0.4401530865700636</v>
+        <v>0.3055260197183713</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1397017921099959</v>
+        <v>0.6118432556589255</v>
       </c>
       <c r="F13">
-        <v>4.316848096639546</v>
+        <v>1.883382002594857</v>
       </c>
       <c r="G13">
-        <v>0.0008106487564147449</v>
+        <v>0.367202036021844</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1145387293577045</v>
       </c>
       <c r="I13">
-        <v>2.200909837569839</v>
+        <v>0.001387235229528549</v>
       </c>
       <c r="J13">
-        <v>0.1629319851683775</v>
+        <v>0.3186788635188904</v>
       </c>
       <c r="K13">
-        <v>1.63499593885939</v>
+        <v>0.2594060269142986</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.05461055971283812</v>
       </c>
       <c r="M13">
-        <v>0.5888565690122718</v>
+        <v>1.83876710180499</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.185003375454016</v>
+        <v>1.612235134852881</v>
       </c>
       <c r="C14">
-        <v>0.4318261209445495</v>
+        <v>0.2923354300672827</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1371132950835552</v>
+        <v>0.4775510414126245</v>
       </c>
       <c r="F14">
-        <v>4.254434457672119</v>
+        <v>1.623968767012926</v>
       </c>
       <c r="G14">
-        <v>0.0008120335464670794</v>
+        <v>0.3281263248366955</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1633856025649294</v>
       </c>
       <c r="I14">
-        <v>2.175223033269532</v>
+        <v>0.001416279917202168</v>
       </c>
       <c r="J14">
-        <v>0.1617746213639535</v>
+        <v>0.299632422628882</v>
       </c>
       <c r="K14">
-        <v>1.603703057420915</v>
+        <v>0.2435438648117962</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06502156285649363</v>
       </c>
       <c r="M14">
-        <v>0.5776834050838744</v>
+        <v>1.798792213271582</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.170891839222179</v>
+        <v>1.595385971906609</v>
       </c>
       <c r="C15">
-        <v>0.4267461628465412</v>
+        <v>0.2877642166158978</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1355333399244749</v>
+        <v>0.4447481235411743</v>
       </c>
       <c r="F15">
-        <v>4.216376322043971</v>
+        <v>1.555269113326702</v>
       </c>
       <c r="G15">
-        <v>0.0008128829523633145</v>
+        <v>0.31832750016153</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1757230929313351</v>
       </c>
       <c r="I15">
-        <v>2.1595651488161</v>
+        <v>0.001539785025386209</v>
       </c>
       <c r="J15">
-        <v>0.1610699389909271</v>
+        <v>0.2952707402258667</v>
       </c>
       <c r="K15">
-        <v>1.584599793392925</v>
+        <v>0.2402608806598963</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06824911811645862</v>
       </c>
       <c r="M15">
-        <v>0.5708627692225434</v>
+        <v>1.777815489413797</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.09065645245488</v>
+        <v>1.494603515694763</v>
       </c>
       <c r="C16">
-        <v>0.3979331384358318</v>
+        <v>0.2703134689653268</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1265608073180253</v>
+        <v>0.4231005887695929</v>
       </c>
       <c r="F16">
-        <v>4.0007969204689</v>
+        <v>1.498150642150279</v>
       </c>
       <c r="G16">
-        <v>0.000817770093230238</v>
+        <v>0.3212744859251444</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.16236136720525</v>
       </c>
       <c r="I16">
-        <v>2.070948233850046</v>
+        <v>0.001778682251980968</v>
       </c>
       <c r="J16">
-        <v>0.1570937126201244</v>
+        <v>0.3012104444334867</v>
       </c>
       <c r="K16">
-        <v>1.476062629436598</v>
+        <v>0.2484483632641385</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06503563427989434</v>
       </c>
       <c r="M16">
-        <v>0.5321146077798673</v>
+        <v>1.666947945288172</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.041960889554019</v>
+        <v>1.430401591138747</v>
       </c>
       <c r="C17">
-        <v>0.3805058182656182</v>
+        <v>0.2639943827496722</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.12112515713169</v>
+        <v>0.4746833294466697</v>
       </c>
       <c r="F17">
-        <v>3.870665664254687</v>
+        <v>1.588087884867321</v>
       </c>
       <c r="G17">
-        <v>0.0008207871178627557</v>
+        <v>0.3437031779959838</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1243365999836499</v>
       </c>
       <c r="I17">
-        <v>2.017521368012922</v>
+        <v>0.0020027663593849</v>
       </c>
       <c r="J17">
-        <v>0.1547067315325066</v>
+        <v>0.3156622609780726</v>
       </c>
       <c r="K17">
-        <v>1.410258249756168</v>
+        <v>0.262837282466565</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.05591704462442948</v>
       </c>
       <c r="M17">
-        <v>0.5086265740923679</v>
+        <v>1.603389623489932</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.014131501469421</v>
+        <v>1.391146439535078</v>
       </c>
       <c r="C18">
-        <v>0.3705667662654832</v>
+        <v>0.2652585619595271</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1180224170414874</v>
+        <v>0.606132932049789</v>
       </c>
       <c r="F18">
-        <v>3.796548729382778</v>
+        <v>1.83038217300512</v>
       </c>
       <c r="G18">
-        <v>0.0008225299515800817</v>
+        <v>0.3901031723580601</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07152954650896248</v>
       </c>
       <c r="I18">
-        <v>1.987114718197446</v>
+        <v>0.001847787657268896</v>
       </c>
       <c r="J18">
-        <v>0.1533518680134023</v>
+        <v>0.341379886666374</v>
       </c>
       <c r="K18">
-        <v>1.372674733337789</v>
+        <v>0.2871238812025361</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.04661792734831671</v>
       </c>
       <c r="M18">
-        <v>0.4952135329651242</v>
+        <v>1.571901784918765</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.004738383633509</v>
+        <v>1.372928564960148</v>
       </c>
       <c r="C19">
-        <v>0.3672155125727272</v>
+        <v>0.2752322191713859</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.116975812163556</v>
+        <v>0.8157688145706175</v>
       </c>
       <c r="F19">
-        <v>3.771575212668154</v>
+        <v>2.193983344264865</v>
       </c>
       <c r="G19">
-        <v>0.0008231213886480545</v>
+        <v>0.451346803430468</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02665125091732534</v>
       </c>
       <c r="I19">
-        <v>1.976873104105451</v>
+        <v>0.001921346247624633</v>
       </c>
       <c r="J19">
-        <v>0.1528961316574495</v>
+        <v>0.3734412284000825</v>
       </c>
       <c r="K19">
-        <v>1.359993265162728</v>
+        <v>0.3172350807517788</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.0468823084614578</v>
       </c>
       <c r="M19">
-        <v>0.4906880483130394</v>
+        <v>1.570617442012122</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.047125773497555</v>
+        <v>1.41765298758375</v>
       </c>
       <c r="C20">
-        <v>0.3823520765020589</v>
+        <v>0.3048318050653052</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1217013043750192</v>
+        <v>1.232246580732635</v>
       </c>
       <c r="F20">
-        <v>3.884441641638801</v>
+        <v>2.898476007031121</v>
       </c>
       <c r="G20">
-        <v>0.0008204651844878957</v>
+        <v>0.5610690302923018</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002434038679449024</v>
       </c>
       <c r="I20">
-        <v>2.023174848493468</v>
+        <v>0.001708983761181671</v>
       </c>
       <c r="J20">
-        <v>0.1549589347604297</v>
+        <v>0.4268001787425959</v>
       </c>
       <c r="K20">
-        <v>1.417235306431792</v>
+        <v>0.3674518289144721</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.07216731518709096</v>
       </c>
       <c r="M20">
-        <v>0.5111167534870944</v>
+        <v>1.650287177642099</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.191781973794349</v>
+        <v>1.59578455816515</v>
       </c>
       <c r="C21">
-        <v>0.4342676290132204</v>
+        <v>0.3452422405395623</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1378724282720896</v>
+        <v>1.41892313899892</v>
       </c>
       <c r="F21">
-        <v>4.272730712735324</v>
+        <v>3.251904499543002</v>
       </c>
       <c r="G21">
-        <v>0.0008116265572053486</v>
+        <v>0.5944758509694452</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.005201901787451613</v>
       </c>
       <c r="I21">
-        <v>2.182751896508918</v>
+        <v>0.00173812191320355</v>
       </c>
       <c r="J21">
-        <v>0.1621136771778993</v>
+        <v>0.4353891374097572</v>
       </c>
       <c r="K21">
-        <v>1.612880956980121</v>
+        <v>0.3704907420408929</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08161848328642662</v>
       </c>
       <c r="M21">
-        <v>0.5809603443014169</v>
+        <v>1.859811968700626</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.288235203139635</v>
+        <v>1.714052316248598</v>
       </c>
       <c r="C22">
-        <v>0.4690988551413966</v>
+        <v>0.3693423396046001</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1486864202774072</v>
+        <v>1.518688648465414</v>
       </c>
       <c r="F22">
-        <v>4.534067787253349</v>
+        <v>3.457842032493659</v>
       </c>
       <c r="G22">
-        <v>0.0008059044670020181</v>
+        <v>0.6163359779846616</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.007481682569629944</v>
       </c>
       <c r="I22">
-        <v>2.290389242692584</v>
+        <v>0.001829297729332602</v>
       </c>
       <c r="J22">
-        <v>0.1669761460450303</v>
+        <v>0.4411016528075464</v>
       </c>
       <c r="K22">
-        <v>1.743576880347746</v>
+        <v>0.3730194323728924</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08630567208235007</v>
       </c>
       <c r="M22">
-        <v>0.6276278707579337</v>
+        <v>1.995016637376864</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.236564892995233</v>
+        <v>1.65209941655408</v>
       </c>
       <c r="C23">
-        <v>0.4504186526779677</v>
+        <v>0.3547167101670539</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1428905876798154</v>
+        <v>1.462319245288484</v>
       </c>
       <c r="F23">
-        <v>4.393840207524903</v>
+        <v>3.352478885514557</v>
       </c>
       <c r="G23">
-        <v>0.0008089541158662634</v>
+        <v>0.608868609051413</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.006222507061986127</v>
       </c>
       <c r="I23">
-        <v>2.232610990446176</v>
+        <v>0.001445807180903813</v>
       </c>
       <c r="J23">
-        <v>0.1643625744412418</v>
+        <v>0.440224237521619</v>
       </c>
       <c r="K23">
-        <v>1.673538879341095</v>
+        <v>0.3743119593755004</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.0841057671587464</v>
       </c>
       <c r="M23">
-        <v>0.6026188630515534</v>
+        <v>1.921391259597897</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.044790214742477</v>
+        <v>1.415972399846794</v>
       </c>
       <c r="C24">
-        <v>0.3815171350817366</v>
+        <v>0.302920117711011</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1214407591498627</v>
+        <v>1.255121508324365</v>
       </c>
       <c r="F24">
-        <v>3.878211361735111</v>
+        <v>2.949542059387113</v>
       </c>
       <c r="G24">
-        <v>0.0008206107044710655</v>
+        <v>0.5754869684765254</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.002445055314652445</v>
       </c>
       <c r="I24">
-        <v>2.020617951970237</v>
+        <v>0.001211090334003018</v>
       </c>
       <c r="J24">
-        <v>0.1548448596204182</v>
+        <v>0.4343157690626356</v>
       </c>
       <c r="K24">
-        <v>1.414080210683778</v>
+        <v>0.3757476829960211</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.07532081534930768</v>
       </c>
       <c r="M24">
-        <v>0.5099906630683577</v>
+        <v>1.646097802883759</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8446294346884713</v>
+        <v>1.161907109744845</v>
       </c>
       <c r="C25">
-        <v>0.3103669181903399</v>
+        <v>0.2483810010938896</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09919410429176523</v>
+        <v>1.033784525234026</v>
       </c>
       <c r="F25">
-        <v>3.349489802445902</v>
+        <v>2.52179209644504</v>
       </c>
       <c r="G25">
-        <v>0.0008334775590269048</v>
+        <v>0.5431230363979012</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0002704780738289614</v>
       </c>
       <c r="I25">
-        <v>1.804086052571378</v>
+        <v>0.002403686831145002</v>
       </c>
       <c r="J25">
-        <v>0.1452574466418994</v>
+        <v>0.4299731444085495</v>
       </c>
       <c r="K25">
-        <v>1.144147982984322</v>
+        <v>0.3791219303134667</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.06589348747455048</v>
       </c>
       <c r="M25">
-        <v>0.4136984946149695</v>
+        <v>1.35116930621524</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9777944377234178</v>
+        <v>0.9700660472400102</v>
       </c>
       <c r="C2">
-        <v>0.2050243009797015</v>
+        <v>0.2233791845816313</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.8648693910054988</v>
+        <v>0.9117446439373111</v>
       </c>
       <c r="F2">
-        <v>2.222751326039401</v>
+        <v>2.154542448690449</v>
       </c>
       <c r="G2">
-        <v>0.5324952319987943</v>
+        <v>0.4424746051844295</v>
       </c>
       <c r="H2">
-        <v>7.956624516181066E-05</v>
+        <v>3.52464932644736E-05</v>
       </c>
       <c r="I2">
-        <v>0.003597342689192207</v>
+        <v>0.002295456211525604</v>
       </c>
       <c r="J2">
-        <v>0.4338246871716933</v>
+        <v>0.4112420913845156</v>
       </c>
       <c r="K2">
-        <v>0.3896858545164399</v>
+        <v>0.3305191792687587</v>
       </c>
       <c r="L2">
-        <v>0.05965655354100008</v>
+        <v>0.1602467249231943</v>
       </c>
       <c r="M2">
-        <v>1.131777432692218</v>
+        <v>0.09309710549552541</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.05473453304753306</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.156344056152165</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8512914135529286</v>
+        <v>0.8471055622142671</v>
       </c>
       <c r="C3">
-        <v>0.1784464079180879</v>
+        <v>0.1918343139648755</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.755230675336648</v>
+        <v>0.7935402818355186</v>
       </c>
       <c r="F3">
-        <v>2.015607119909475</v>
+        <v>1.959956651826403</v>
       </c>
       <c r="G3">
-        <v>0.5206011959431223</v>
+        <v>0.441018038078127</v>
       </c>
       <c r="H3">
-        <v>0.0007248962427428562</v>
+        <v>0.0005486400634879818</v>
       </c>
       <c r="I3">
-        <v>0.005379092546440312</v>
+        <v>0.00344982271913219</v>
       </c>
       <c r="J3">
-        <v>0.4341113807020491</v>
+        <v>0.4116587801502547</v>
       </c>
       <c r="K3">
-        <v>0.393748870832912</v>
+        <v>0.3385696175082593</v>
       </c>
       <c r="L3">
-        <v>0.05497303102124107</v>
+        <v>0.1662535288446207</v>
       </c>
       <c r="M3">
-        <v>0.9854472605806279</v>
+        <v>0.09444781846096539</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.05078370637275498</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.006030020929813</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7734726451620304</v>
+        <v>0.7713516109881198</v>
       </c>
       <c r="C4">
-        <v>0.1623753861193791</v>
+        <v>0.1728134388687295</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6882657110630674</v>
+        <v>0.7214176579740155</v>
       </c>
       <c r="F4">
-        <v>1.889064841103959</v>
+        <v>1.840936880731363</v>
       </c>
       <c r="G4">
-        <v>0.5137225258862728</v>
+        <v>0.4405559931577798</v>
       </c>
       <c r="H4">
-        <v>0.001472146792678375</v>
+        <v>0.001193212388312714</v>
       </c>
       <c r="I4">
-        <v>0.006745522689221684</v>
+        <v>0.004371063689948329</v>
       </c>
       <c r="J4">
-        <v>0.4345713973033369</v>
+        <v>0.4119434780083324</v>
       </c>
       <c r="K4">
-        <v>0.3964624203161051</v>
+        <v>0.3436578678062148</v>
       </c>
       <c r="L4">
-        <v>0.052057958478267</v>
+        <v>0.1700378982637893</v>
       </c>
       <c r="M4">
-        <v>0.8957768983458436</v>
+        <v>0.09580606870114039</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.04831266431512127</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9138910506054572</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7414316719254259</v>
+        <v>0.7401530425765941</v>
       </c>
       <c r="C5">
-        <v>0.1563001817556824</v>
+        <v>0.1655428430075148</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6618031543677603</v>
+        <v>0.6928186788079103</v>
       </c>
       <c r="F5">
-        <v>1.836447047651049</v>
+        <v>1.791471109265913</v>
       </c>
       <c r="G5">
-        <v>0.509901649597694</v>
+        <v>0.4395476499551947</v>
       </c>
       <c r="H5">
-        <v>0.001861306351792269</v>
+        <v>0.001535213004277836</v>
       </c>
       <c r="I5">
-        <v>0.007449152256900238</v>
+        <v>0.004889474318292564</v>
       </c>
       <c r="J5">
-        <v>0.4342393340272181</v>
+        <v>0.4115607521091675</v>
       </c>
       <c r="K5">
-        <v>0.3969042731903336</v>
+        <v>0.3451953150332834</v>
       </c>
       <c r="L5">
-        <v>0.05078480665792107</v>
+        <v>0.1713171122924244</v>
       </c>
       <c r="M5">
-        <v>0.8596119135429205</v>
+        <v>0.09634948411362387</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.04723101626625414</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8766849572186004</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7357578617813374</v>
+        <v>0.7346505778847359</v>
       </c>
       <c r="C6">
-        <v>0.1558067054672136</v>
+        <v>0.1648303027695306</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6583305393023267</v>
+        <v>0.6889188626758482</v>
       </c>
       <c r="F6">
-        <v>1.826264618243314</v>
+        <v>1.781970945623428</v>
       </c>
       <c r="G6">
-        <v>0.5079107447157583</v>
+        <v>0.4382643140424776</v>
       </c>
       <c r="H6">
-        <v>0.001932015720538027</v>
+        <v>0.001597569700586776</v>
       </c>
       <c r="I6">
-        <v>0.007676943405956926</v>
+        <v>0.005100021016108514</v>
       </c>
       <c r="J6">
-        <v>0.433471278129602</v>
+        <v>0.4108818520639232</v>
       </c>
       <c r="K6">
-        <v>0.3961082511479646</v>
+        <v>0.3447586518444616</v>
       </c>
       <c r="L6">
-        <v>0.05048199755163019</v>
+        <v>0.1711824723753885</v>
       </c>
       <c r="M6">
-        <v>0.8540293900044276</v>
+        <v>0.09627470721758868</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.04697449742176296</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8708908047896955</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7720791704792873</v>
+        <v>0.7703224640297037</v>
       </c>
       <c r="C7">
-        <v>0.1636941280283111</v>
+        <v>0.1735821729429432</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.69041799650131</v>
+        <v>0.7247289482421735</v>
       </c>
       <c r="F7">
-        <v>1.884384001646694</v>
+        <v>1.834622335324184</v>
       </c>
       <c r="G7">
-        <v>0.5099513914950933</v>
+        <v>0.4390611215557101</v>
       </c>
       <c r="H7">
-        <v>0.00147974506556281</v>
+        <v>0.001201388230798406</v>
       </c>
       <c r="I7">
-        <v>0.007030136898630523</v>
+        <v>0.004696913190448626</v>
       </c>
       <c r="J7">
-        <v>0.4326121394892866</v>
+        <v>0.4057266951970462</v>
       </c>
       <c r="K7">
-        <v>0.3940882015053226</v>
+        <v>0.3409263326891221</v>
       </c>
       <c r="L7">
-        <v>0.05179225221647421</v>
+        <v>0.1687073805481489</v>
       </c>
       <c r="M7">
-        <v>0.8964414108783672</v>
+        <v>0.09509243610556872</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.04796708675377204</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9140234110128915</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.932914410778551</v>
+        <v>0.9274342564170865</v>
       </c>
       <c r="C8">
-        <v>0.1976744444073262</v>
+        <v>0.2126216687128988</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.8303302003201338</v>
+        <v>0.878639940102758</v>
       </c>
       <c r="F8">
-        <v>2.145913850908613</v>
+        <v>2.07563102559898</v>
       </c>
       <c r="G8">
-        <v>0.5234004881756533</v>
+        <v>0.4431764182181723</v>
       </c>
       <c r="H8">
-        <v>0.0002277505633454524</v>
+        <v>0.0001440608793537024</v>
       </c>
       <c r="I8">
-        <v>0.004480026660051983</v>
+        <v>0.003037619786216972</v>
       </c>
       <c r="J8">
-        <v>0.4312985119733526</v>
+        <v>0.3945817305427894</v>
       </c>
       <c r="K8">
-        <v>0.3879177465185819</v>
+        <v>0.3280579927141432</v>
       </c>
       <c r="L8">
-        <v>0.05771748846064995</v>
+        <v>0.1599632245808422</v>
       </c>
       <c r="M8">
-        <v>1.082814960608204</v>
+        <v>0.0918734256377487</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.05270061366077172</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.104485217609124</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.249221169953842</v>
+        <v>1.234352586391907</v>
       </c>
       <c r="C9">
-        <v>0.2640215845858762</v>
+        <v>0.2915136068290565</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.103508809776486</v>
+        <v>1.175358277739733</v>
       </c>
       <c r="F9">
-        <v>2.672254031336536</v>
+        <v>2.567017563045525</v>
       </c>
       <c r="G9">
-        <v>0.5601620991316594</v>
+        <v>0.4547287139989891</v>
       </c>
       <c r="H9">
-        <v>0.0007723611549086407</v>
+        <v>0.0008764749777243619</v>
       </c>
       <c r="I9">
-        <v>0.001390152792806632</v>
+        <v>0.001092276572187245</v>
       </c>
       <c r="J9">
-        <v>0.4346056760252139</v>
+        <v>0.3919012019294783</v>
       </c>
       <c r="K9">
-        <v>0.3819128217172896</v>
+        <v>0.3104787922638224</v>
       </c>
       <c r="L9">
-        <v>0.06952320011784607</v>
+        <v>0.1465651503124938</v>
       </c>
       <c r="M9">
-        <v>1.44819704979443</v>
+        <v>0.09166272337809822</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.06247956486526718</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.479290091722902</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.481836827450451</v>
+        <v>1.461431073539075</v>
       </c>
       <c r="C10">
-        <v>0.3135229598985916</v>
+        <v>0.3469942006563826</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.269713616208492</v>
+        <v>1.365148358780758</v>
       </c>
       <c r="F10">
-        <v>2.99983575695947</v>
+        <v>2.858880370863801</v>
       </c>
       <c r="G10">
-        <v>0.5775791887807173</v>
+        <v>0.4663371944208308</v>
       </c>
       <c r="H10">
-        <v>0.003265207944199044</v>
+        <v>0.003356074009100318</v>
       </c>
       <c r="I10">
-        <v>0.0009031717796954553</v>
+        <v>0.001090393195286588</v>
       </c>
       <c r="J10">
-        <v>0.4324387316062257</v>
+        <v>0.3623025116334802</v>
       </c>
       <c r="K10">
-        <v>0.3723414356293411</v>
+        <v>0.2898063919511848</v>
       </c>
       <c r="L10">
-        <v>0.07434790497574539</v>
+        <v>0.1341928510472084</v>
       </c>
       <c r="M10">
-        <v>1.717577390886049</v>
+        <v>0.09068644354966793</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.06570286378148005</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.752151824735733</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.59275792437478</v>
+        <v>1.576628879046638</v>
       </c>
       <c r="C11">
-        <v>0.3236293490529931</v>
+        <v>0.347921640369492</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.032424603135269</v>
+        <v>1.129330998542869</v>
       </c>
       <c r="F11">
-        <v>2.617023811412267</v>
+        <v>2.469275007459728</v>
       </c>
       <c r="G11">
-        <v>0.4922611392786678</v>
+        <v>0.4164369630683069</v>
       </c>
       <c r="H11">
-        <v>0.02144059157508948</v>
+        <v>0.0214816039270147</v>
       </c>
       <c r="I11">
-        <v>0.001440895932294239</v>
+        <v>0.001801071693292577</v>
       </c>
       <c r="J11">
-        <v>0.38421198438391</v>
+        <v>0.2886160623216441</v>
       </c>
       <c r="K11">
-        <v>0.3211308030354836</v>
+        <v>0.2449150954950383</v>
       </c>
       <c r="L11">
-        <v>0.05408693309364665</v>
+        <v>0.1169659119118638</v>
       </c>
       <c r="M11">
-        <v>1.827328222569321</v>
+        <v>0.07550592595687355</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.04952580800859563</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.853982015015902</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.639155231733895</v>
+        <v>1.626893657997726</v>
       </c>
       <c r="C12">
-        <v>0.3191744403695509</v>
+        <v>0.336427655415207</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.8172312800654424</v>
+        <v>0.9048382985846075</v>
       </c>
       <c r="F12">
-        <v>2.254840056125062</v>
+        <v>2.116497449188543</v>
       </c>
       <c r="G12">
-        <v>0.4268918013507346</v>
+        <v>0.3722906405298616</v>
       </c>
       <c r="H12">
-        <v>0.05952225845324932</v>
+        <v>0.05954989703042912</v>
       </c>
       <c r="I12">
-        <v>0.001451725341699017</v>
+        <v>0.001818068023507813</v>
       </c>
       <c r="J12">
-        <v>0.3490154234487051</v>
+        <v>0.2556628893138431</v>
       </c>
       <c r="K12">
-        <v>0.2867199940480312</v>
+        <v>0.2198357880999531</v>
       </c>
       <c r="L12">
-        <v>0.04895691875388497</v>
+        <v>0.1083108973946958</v>
       </c>
       <c r="M12">
-        <v>1.860722164299887</v>
+        <v>0.06581186824584861</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.04868676621538803</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.881547985494251</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.636555463316796</v>
+        <v>1.627404276245954</v>
       </c>
       <c r="C13">
-        <v>0.3055260197183713</v>
+        <v>0.318123509788137</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6118432556589255</v>
+        <v>0.6805295586818687</v>
       </c>
       <c r="F13">
-        <v>1.883382002594857</v>
+        <v>1.76995587662779</v>
       </c>
       <c r="G13">
-        <v>0.367202036021844</v>
+        <v>0.3227672324966377</v>
       </c>
       <c r="H13">
-        <v>0.1145387293577045</v>
+        <v>0.1145747528618557</v>
       </c>
       <c r="I13">
-        <v>0.001387235229528549</v>
+        <v>0.001722095112794086</v>
       </c>
       <c r="J13">
-        <v>0.3186788635188904</v>
+        <v>0.2454687760997878</v>
       </c>
       <c r="K13">
-        <v>0.2594060269142986</v>
+        <v>0.2054471586896494</v>
       </c>
       <c r="L13">
-        <v>0.05461055971283812</v>
+        <v>0.1038839829652556</v>
       </c>
       <c r="M13">
-        <v>1.83876710180499</v>
+        <v>0.05916243275011546</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.0580401906375414</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.85612812266524</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.612235134852881</v>
+        <v>1.60494541943936</v>
       </c>
       <c r="C14">
-        <v>0.2923354300672827</v>
+        <v>0.30263873067247</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4775510414126245</v>
+        <v>0.5304546690461223</v>
       </c>
       <c r="F14">
-        <v>1.623968767012926</v>
+        <v>1.533015947846678</v>
       </c>
       <c r="G14">
-        <v>0.3281263248366955</v>
+        <v>0.2869248081215403</v>
       </c>
       <c r="H14">
-        <v>0.1633856025649294</v>
+        <v>0.16342999831123</v>
       </c>
       <c r="I14">
-        <v>0.001416279917202168</v>
+        <v>0.001718621459304792</v>
       </c>
       <c r="J14">
-        <v>0.299632422628882</v>
+        <v>0.2454884386477367</v>
       </c>
       <c r="K14">
-        <v>0.2435438648117962</v>
+        <v>0.1994006214855606</v>
       </c>
       <c r="L14">
-        <v>0.06502156285649363</v>
+        <v>0.1022213548016415</v>
       </c>
       <c r="M14">
-        <v>1.798792213271582</v>
+        <v>0.05576478239338734</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07016281944412839</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.814711313246789</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.595385971906609</v>
+        <v>1.58845395853433</v>
       </c>
       <c r="C15">
-        <v>0.2877642166158978</v>
+        <v>0.2978506627896707</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4447481235411743</v>
+        <v>0.4925391709765776</v>
       </c>
       <c r="F15">
-        <v>1.555269113326702</v>
+        <v>1.472236411941765</v>
       </c>
       <c r="G15">
-        <v>0.31832750016153</v>
+        <v>0.2767535019625313</v>
       </c>
       <c r="H15">
-        <v>0.1757230929313351</v>
+        <v>0.1757703086637008</v>
       </c>
       <c r="I15">
-        <v>0.001539785025386209</v>
+        <v>0.0018420060381521</v>
       </c>
       <c r="J15">
-        <v>0.2952707402258667</v>
+        <v>0.2482485661296927</v>
       </c>
       <c r="K15">
-        <v>0.2402608806598963</v>
+        <v>0.1991174814137384</v>
       </c>
       <c r="L15">
-        <v>0.06824911811645862</v>
+        <v>0.1022413984259467</v>
       </c>
       <c r="M15">
-        <v>1.777815489413797</v>
+        <v>0.05525460329674203</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07350010160100595</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.793769268438155</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.494603515694763</v>
+        <v>1.486849330426764</v>
       </c>
       <c r="C16">
-        <v>0.2703134689653268</v>
+        <v>0.2831842347536337</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4231005887695929</v>
+        <v>0.4585939577745961</v>
       </c>
       <c r="F16">
-        <v>1.498150642150279</v>
+        <v>1.436758070705537</v>
       </c>
       <c r="G16">
-        <v>0.3212744859251444</v>
+        <v>0.2698337787476746</v>
       </c>
       <c r="H16">
-        <v>0.16236136720525</v>
+        <v>0.1624096623593516</v>
       </c>
       <c r="I16">
-        <v>0.001778682251980968</v>
+        <v>0.001951295036598744</v>
       </c>
       <c r="J16">
-        <v>0.3012104444334867</v>
+        <v>0.2778205245686252</v>
       </c>
       <c r="K16">
-        <v>0.2484483632641385</v>
+        <v>0.2122361242096407</v>
       </c>
       <c r="L16">
-        <v>0.06503563427989434</v>
+        <v>0.1071045456527457</v>
       </c>
       <c r="M16">
-        <v>1.666947945288172</v>
+        <v>0.05891919609647367</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06847151029566589</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.686248265007606</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.430401591138747</v>
+        <v>1.421511918910198</v>
       </c>
       <c r="C17">
-        <v>0.2639943827496722</v>
+        <v>0.2795022647591168</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4746833294466697</v>
+        <v>0.5087927165457629</v>
       </c>
       <c r="F17">
-        <v>1.588087884867321</v>
+        <v>1.530897592363218</v>
       </c>
       <c r="G17">
-        <v>0.3437031779959838</v>
+        <v>0.2840349143702241</v>
       </c>
       <c r="H17">
-        <v>0.1243365999836499</v>
+        <v>0.1243794111717591</v>
       </c>
       <c r="I17">
-        <v>0.0020027663593849</v>
+        <v>0.002084386489486612</v>
       </c>
       <c r="J17">
-        <v>0.3156622609780726</v>
+        <v>0.3012199330884826</v>
       </c>
       <c r="K17">
-        <v>0.262837282466565</v>
+        <v>0.2256069447750146</v>
       </c>
       <c r="L17">
-        <v>0.05591704462442948</v>
+        <v>0.1121659020297425</v>
       </c>
       <c r="M17">
-        <v>1.603389623489932</v>
+        <v>0.06325579795074532</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05790522311773927</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.625264331717574</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.391146439535078</v>
+        <v>1.380050019123047</v>
       </c>
       <c r="C18">
-        <v>0.2652585619595271</v>
+        <v>0.2847495411573675</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.606132932049789</v>
+        <v>0.6464208529160231</v>
       </c>
       <c r="F18">
-        <v>1.83038217300512</v>
+        <v>1.765722275918463</v>
       </c>
       <c r="G18">
-        <v>0.3901031723580601</v>
+        <v>0.3183076927906612</v>
       </c>
       <c r="H18">
-        <v>0.07152954650896248</v>
+        <v>0.07157983718346372</v>
       </c>
       <c r="I18">
-        <v>0.001847787657268896</v>
+        <v>0.001846264383358331</v>
       </c>
       <c r="J18">
-        <v>0.341379886666374</v>
+        <v>0.326791873870647</v>
       </c>
       <c r="K18">
-        <v>0.2871238812025361</v>
+        <v>0.2437578627544301</v>
       </c>
       <c r="L18">
-        <v>0.04661792734831671</v>
+        <v>0.1190754916702534</v>
       </c>
       <c r="M18">
-        <v>1.571901784918765</v>
+        <v>0.06971363987346813</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.0468775454744339</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.597093560344774</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.372928564960148</v>
+        <v>1.358894726550403</v>
       </c>
       <c r="C19">
-        <v>0.2752322191713859</v>
+        <v>0.299910716793903</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.8157688145706175</v>
+        <v>0.8681632797464403</v>
       </c>
       <c r="F19">
-        <v>2.193983344264865</v>
+        <v>2.11362417713633</v>
       </c>
       <c r="G19">
-        <v>0.451346803430468</v>
+        <v>0.3639482804183061</v>
       </c>
       <c r="H19">
-        <v>0.02665125091732534</v>
+        <v>0.02672657189005889</v>
       </c>
       <c r="I19">
-        <v>0.001921346247624633</v>
+        <v>0.001968515165414964</v>
       </c>
       <c r="J19">
-        <v>0.3734412284000825</v>
+        <v>0.3530320829500226</v>
       </c>
       <c r="K19">
-        <v>0.3172350807517788</v>
+        <v>0.2642385111345291</v>
       </c>
       <c r="L19">
-        <v>0.0468823084614578</v>
+        <v>0.1268308904032871</v>
       </c>
       <c r="M19">
-        <v>1.570617442012122</v>
+        <v>0.07734433268877083</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.04469694003622826</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.599660762382882</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.41765298758375</v>
+        <v>1.398119300420916</v>
       </c>
       <c r="C20">
-        <v>0.3048318050653052</v>
+        <v>0.3383644709537634</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.232246580732635</v>
+        <v>1.315656897969546</v>
       </c>
       <c r="F20">
-        <v>2.898476007031121</v>
+        <v>2.776192384177762</v>
       </c>
       <c r="G20">
-        <v>0.5610690302923018</v>
+        <v>0.4479022709587355</v>
       </c>
       <c r="H20">
-        <v>0.002434038679449024</v>
+        <v>0.002546797465377892</v>
       </c>
       <c r="I20">
-        <v>0.001708983761181671</v>
+        <v>0.001949715167286925</v>
       </c>
       <c r="J20">
-        <v>0.4268001787425959</v>
+        <v>0.3796658017467891</v>
       </c>
       <c r="K20">
-        <v>0.3674518289144721</v>
+        <v>0.2926245007576185</v>
       </c>
       <c r="L20">
-        <v>0.07216731518709096</v>
+        <v>0.1364317952186269</v>
       </c>
       <c r="M20">
-        <v>1.650287177642099</v>
+        <v>0.08981971916782072</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.06453214870516</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.685194393336417</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.59578455816515</v>
+        <v>1.576211385034497</v>
       </c>
       <c r="C21">
-        <v>0.3452422405395623</v>
+        <v>0.3750876827062939</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.41892313899892</v>
+        <v>1.552753062885145</v>
       </c>
       <c r="F21">
-        <v>3.251904499543002</v>
+        <v>3.055900001279923</v>
       </c>
       <c r="G21">
-        <v>0.5944758509694452</v>
+        <v>0.5044555705566722</v>
       </c>
       <c r="H21">
-        <v>0.005201901787451613</v>
+        <v>0.005205557436058106</v>
       </c>
       <c r="I21">
-        <v>0.00173812191320355</v>
+        <v>0.002175689118398161</v>
       </c>
       <c r="J21">
-        <v>0.4353891374097572</v>
+        <v>0.2990895892924499</v>
       </c>
       <c r="K21">
-        <v>0.3704907420408929</v>
+        <v>0.26986214307545</v>
       </c>
       <c r="L21">
-        <v>0.08161848328642662</v>
+        <v>0.1251341325685846</v>
       </c>
       <c r="M21">
-        <v>1.859811968700626</v>
+        <v>0.08649805993186632</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.06953293906030922</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.889821043689466</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.714052316248598</v>
+        <v>1.694957035616881</v>
       </c>
       <c r="C22">
-        <v>0.3693423396046001</v>
+        <v>0.3956394032379364</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.518688648465414</v>
+        <v>1.687715047332887</v>
       </c>
       <c r="F22">
-        <v>3.457842032493659</v>
+        <v>3.210436205012172</v>
       </c>
       <c r="G22">
-        <v>0.6163359779846616</v>
+        <v>0.5469425861859634</v>
       </c>
       <c r="H22">
-        <v>0.007481682569629944</v>
+        <v>0.007361964458962478</v>
       </c>
       <c r="I22">
-        <v>0.001829297729332602</v>
+        <v>0.002211557958783139</v>
       </c>
       <c r="J22">
-        <v>0.4411016528075464</v>
+        <v>0.2544627140721119</v>
       </c>
       <c r="K22">
-        <v>0.3730194323728924</v>
+        <v>0.2548662148934007</v>
       </c>
       <c r="L22">
-        <v>0.08630567208235007</v>
+        <v>0.1181290939633897</v>
       </c>
       <c r="M22">
-        <v>1.995016637376864</v>
+        <v>0.08431052352088031</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.0713244203487875</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.020753580512718</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.65209941655408</v>
+        <v>1.63188223547229</v>
       </c>
       <c r="C23">
-        <v>0.3547167101670539</v>
+        <v>0.3843260078637627</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.462319245288484</v>
+        <v>1.608639495226228</v>
       </c>
       <c r="F23">
-        <v>3.352478885514557</v>
+        <v>3.137664191429991</v>
       </c>
       <c r="G23">
-        <v>0.608868609051413</v>
+        <v>0.5227797895160649</v>
       </c>
       <c r="H23">
-        <v>0.006222507061986127</v>
+        <v>0.006178684398656875</v>
       </c>
       <c r="I23">
-        <v>0.001445807180903813</v>
+        <v>0.00180937016669791</v>
       </c>
       <c r="J23">
-        <v>0.440224237521619</v>
+        <v>0.2852051845218071</v>
       </c>
       <c r="K23">
-        <v>0.3743119593755004</v>
+        <v>0.2664161538342995</v>
       </c>
       <c r="L23">
-        <v>0.0841057671587464</v>
+        <v>0.1229652051791419</v>
       </c>
       <c r="M23">
-        <v>1.921391259597897</v>
+        <v>0.08700883214790522</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.07090595714686643</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.950721312298811</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.415972399846794</v>
+        <v>1.395953245155823</v>
       </c>
       <c r="C24">
-        <v>0.302920117711011</v>
+        <v>0.3371175933876032</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.255121508324365</v>
+        <v>1.340258987754851</v>
       </c>
       <c r="F24">
-        <v>2.949542059387113</v>
+        <v>2.824689160841217</v>
       </c>
       <c r="G24">
-        <v>0.5754869684765254</v>
+        <v>0.4587842263564283</v>
       </c>
       <c r="H24">
-        <v>0.002445055314652445</v>
+        <v>0.002559798372364419</v>
       </c>
       <c r="I24">
-        <v>0.001211090334003018</v>
+        <v>0.001356110594477933</v>
       </c>
       <c r="J24">
-        <v>0.4343157690626356</v>
+        <v>0.3861120391387942</v>
       </c>
       <c r="K24">
-        <v>0.3757476829960211</v>
+        <v>0.2985707507535302</v>
       </c>
       <c r="L24">
-        <v>0.07532081534930768</v>
+        <v>0.1386385425134211</v>
       </c>
       <c r="M24">
-        <v>1.646097802883759</v>
+        <v>0.09206857724440454</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.06719654670672526</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.681615952753305</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.161907109744845</v>
+        <v>1.149493932318506</v>
       </c>
       <c r="C25">
-        <v>0.2483810010938896</v>
+        <v>0.2730206278132812</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.033784525234026</v>
+        <v>1.096808882897136</v>
       </c>
       <c r="F25">
-        <v>2.52179209644504</v>
+        <v>2.430083003964995</v>
       </c>
       <c r="G25">
-        <v>0.5431230363979012</v>
+        <v>0.443524359265794</v>
       </c>
       <c r="H25">
-        <v>0.0002704780738289614</v>
+        <v>0.0003473980145427547</v>
       </c>
       <c r="I25">
-        <v>0.002403686831145002</v>
+        <v>0.001931634065215349</v>
       </c>
       <c r="J25">
-        <v>0.4299731444085495</v>
+        <v>0.3959318575107389</v>
       </c>
       <c r="K25">
-        <v>0.3791219303134667</v>
+        <v>0.3131140134242827</v>
       </c>
       <c r="L25">
-        <v>0.06589348747455048</v>
+        <v>0.1493197563617326</v>
       </c>
       <c r="M25">
-        <v>1.35116930621524</v>
+        <v>0.09055545622929451</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.05966710680249498</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.3801767048665</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
